--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-Jirik\Skola\FJFI\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3EEB19-8CAA-4AEC-A499-3288058EBFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABE0584-83DA-48CB-8A89-D3D7F71D8609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="225" windowWidth="28800" windowHeight="17730" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F77252F-DDF1-48FB-B55F-5DF7ACE04987}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,11 +1077,11 @@
       <c r="F3" s="19">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="18">
+        <v>1</v>
+      </c>
       <c r="H3" s="18"/>
-      <c r="I3" s="18">
-        <v>1</v>
-      </c>
+      <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="20"/>
       <c r="L3" s="21">
@@ -1118,16 +1118,16 @@
       <c r="F4" s="19">
         <v>1</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
       <c r="H4" s="18"/>
-      <c r="I4" s="18">
-        <v>1</v>
-      </c>
+      <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21">
         <f t="shared" ref="L4:L25" si="0">SUM(E4:K4)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
@@ -1152,11 +1152,11 @@
       <c r="F5" s="19">
         <v>1</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
       <c r="H5" s="18"/>
-      <c r="I5" s="18">
-        <v>1</v>
-      </c>
+      <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="20"/>
       <c r="L5" s="21">
@@ -1186,16 +1186,16 @@
       <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
       <c r="H6" s="18"/>
-      <c r="I6" s="18">
-        <v>1</v>
-      </c>
+      <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="20"/>
       <c r="L6" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
@@ -1220,11 +1220,11 @@
       <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="18">
-        <v>1</v>
-      </c>
+      <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="20"/>
       <c r="L7" s="21">
@@ -1254,11 +1254,11 @@
       <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="18">
-        <v>1</v>
-      </c>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="20"/>
       <c r="L8" s="21">
@@ -1288,11 +1288,11 @@
       <c r="F9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
       <c r="H9" s="18"/>
-      <c r="I9" s="18">
-        <v>1</v>
-      </c>
+      <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="20"/>
       <c r="L9" s="21">
@@ -1322,11 +1322,11 @@
       <c r="F10" s="19">
         <v>1</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="18">
-        <v>1</v>
-      </c>
+      <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="20"/>
       <c r="L10" s="21">
@@ -1356,16 +1356,16 @@
       <c r="F11" s="19">
         <v>1</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="18">
-        <v>1</v>
-      </c>
+      <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="20"/>
       <c r="L11" s="21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -1390,11 +1390,11 @@
       <c r="F12" s="19">
         <v>1</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="18">
-        <v>1</v>
-      </c>
+      <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="20"/>
       <c r="L12" s="21">
@@ -1424,11 +1424,11 @@
       <c r="F13" s="19">
         <v>1</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
       <c r="H13" s="18"/>
-      <c r="I13" s="18">
-        <v>1</v>
-      </c>
+      <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="20"/>
       <c r="L13" s="21">
@@ -1457,11 +1457,11 @@
       <c r="F14" s="19">
         <v>1</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="18">
-        <v>1</v>
-      </c>
+      <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="20"/>
       <c r="L14" s="21">
@@ -1491,11 +1491,11 @@
       <c r="F15" s="19">
         <v>1</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
       <c r="H15" s="18"/>
-      <c r="I15" s="18">
-        <v>1</v>
-      </c>
+      <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="20"/>
       <c r="L15" s="21">
@@ -1525,11 +1525,11 @@
       <c r="F16" s="19">
         <v>1</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="18">
-        <v>1</v>
-      </c>
+      <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="20"/>
       <c r="L16" s="21">
@@ -1559,11 +1559,11 @@
       <c r="F17" s="19">
         <v>1</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
       <c r="H17" s="18"/>
-      <c r="I17" s="18">
-        <v>1</v>
-      </c>
+      <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="20"/>
       <c r="L17" s="21">
@@ -1593,11 +1593,11 @@
       <c r="F18" s="19">
         <v>1</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
       <c r="H18" s="18"/>
-      <c r="I18" s="18">
-        <v>1</v>
-      </c>
+      <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="20"/>
       <c r="L18" s="21">
@@ -1627,11 +1627,11 @@
       <c r="F19" s="19">
         <v>1</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
       <c r="H19" s="18"/>
-      <c r="I19" s="18">
-        <v>1</v>
-      </c>
+      <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="20"/>
       <c r="L19" s="21">
@@ -1663,11 +1663,11 @@
       <c r="F20" s="19">
         <v>1</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
       <c r="H20" s="18"/>
-      <c r="I20" s="18">
-        <v>1</v>
-      </c>
+      <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="20"/>
       <c r="L20" s="21">
@@ -1697,11 +1697,11 @@
       <c r="F21" s="19">
         <v>1</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
       <c r="H21" s="18"/>
-      <c r="I21" s="18">
-        <v>1</v>
-      </c>
+      <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="20"/>
       <c r="L21" s="21">
@@ -1731,11 +1731,11 @@
       <c r="F22" s="19">
         <v>1</v>
       </c>
-      <c r="G22" s="18"/>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
       <c r="H22" s="18"/>
-      <c r="I22" s="18">
-        <v>1</v>
-      </c>
+      <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="20"/>
       <c r="L22" s="21">
@@ -1765,11 +1765,11 @@
       <c r="F23" s="19">
         <v>1</v>
       </c>
-      <c r="G23" s="18"/>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
       <c r="H23" s="18"/>
-      <c r="I23" s="18">
-        <v>1</v>
-      </c>
+      <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="20"/>
       <c r="L23" s="21">
@@ -1799,11 +1799,11 @@
       <c r="F24" s="19">
         <v>0</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
       <c r="H24" s="18"/>
-      <c r="I24" s="18">
-        <v>1</v>
-      </c>
+      <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="20"/>
       <c r="L24" s="21">
@@ -1833,11 +1833,11 @@
       <c r="F25" s="19">
         <v>0</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>1</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="20"/>
       <c r="L25" s="21">
@@ -1964,11 +1964,11 @@
       <c r="F29" s="6">
         <v>1</v>
       </c>
-      <c r="G29" s="18"/>
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
       <c r="H29" s="18"/>
-      <c r="I29" s="6">
-        <v>1</v>
-      </c>
+      <c r="I29" s="6"/>
       <c r="J29" s="18"/>
       <c r="K29" s="20"/>
       <c r="L29" s="21">
@@ -1997,16 +1997,16 @@
       <c r="F30" s="6">
         <v>1</v>
       </c>
-      <c r="G30" s="18"/>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
       <c r="H30" s="18"/>
-      <c r="I30" s="6">
-        <v>1</v>
-      </c>
+      <c r="I30" s="6"/>
       <c r="J30" s="18"/>
       <c r="K30" s="20"/>
       <c r="L30" s="21">
         <f t="shared" ref="L30:L49" si="1">SUM(E30:K30)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -2033,11 +2033,11 @@
       <c r="F31" s="6">
         <v>1</v>
       </c>
-      <c r="G31" s="18"/>
+      <c r="G31" s="18">
+        <v>1</v>
+      </c>
       <c r="H31" s="18"/>
-      <c r="I31" s="6">
-        <v>1</v>
-      </c>
+      <c r="I31" s="6"/>
       <c r="J31" s="18"/>
       <c r="K31" s="20"/>
       <c r="L31" s="21">
@@ -2067,11 +2067,11 @@
       <c r="F32" s="6">
         <v>1</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="18">
+        <v>1</v>
+      </c>
       <c r="H32" s="18"/>
-      <c r="I32" s="6">
-        <v>1</v>
-      </c>
+      <c r="I32" s="6"/>
       <c r="J32" s="18"/>
       <c r="K32" s="20"/>
       <c r="L32" s="21">
@@ -2101,11 +2101,11 @@
       <c r="F33" s="6">
         <v>0</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="18">
+        <v>1</v>
+      </c>
       <c r="H33" s="18"/>
-      <c r="I33" s="6">
-        <v>1</v>
-      </c>
+      <c r="I33" s="6"/>
       <c r="J33" s="18"/>
       <c r="K33" s="20"/>
       <c r="L33" s="21">
@@ -2135,11 +2135,11 @@
       <c r="F34" s="6">
         <v>1</v>
       </c>
-      <c r="G34" s="18"/>
+      <c r="G34" s="18">
+        <v>1</v>
+      </c>
       <c r="H34" s="18"/>
-      <c r="I34" s="6">
-        <v>1</v>
-      </c>
+      <c r="I34" s="6"/>
       <c r="J34" s="18"/>
       <c r="K34" s="20"/>
       <c r="L34" s="21">
@@ -2169,11 +2169,11 @@
       <c r="F35" s="6">
         <v>1</v>
       </c>
-      <c r="G35" s="18"/>
+      <c r="G35" s="18">
+        <v>1</v>
+      </c>
       <c r="H35" s="18"/>
-      <c r="I35" s="6">
-        <v>1</v>
-      </c>
+      <c r="I35" s="6"/>
       <c r="J35" s="18"/>
       <c r="K35" s="20"/>
       <c r="L35" s="21">
@@ -2203,11 +2203,11 @@
       <c r="F36" s="6">
         <v>0</v>
       </c>
-      <c r="G36" s="18"/>
+      <c r="G36" s="18">
+        <v>1</v>
+      </c>
       <c r="H36" s="18"/>
-      <c r="I36" s="6">
-        <v>1</v>
-      </c>
+      <c r="I36" s="6"/>
       <c r="J36" s="18"/>
       <c r="K36" s="20"/>
       <c r="L36" s="21">
@@ -2237,11 +2237,11 @@
       <c r="F37" s="6">
         <v>1</v>
       </c>
-      <c r="G37" s="18"/>
+      <c r="G37" s="18">
+        <v>1</v>
+      </c>
       <c r="H37" s="18"/>
-      <c r="I37" s="6">
-        <v>1</v>
-      </c>
+      <c r="I37" s="6"/>
       <c r="J37" s="18"/>
       <c r="K37" s="20"/>
       <c r="L37" s="21">
@@ -2271,11 +2271,11 @@
       <c r="F38" s="6">
         <v>0</v>
       </c>
-      <c r="G38" s="18"/>
+      <c r="G38" s="18">
+        <v>1</v>
+      </c>
       <c r="H38" s="18"/>
-      <c r="I38" s="6">
-        <v>1</v>
-      </c>
+      <c r="I38" s="6"/>
       <c r="J38" s="18"/>
       <c r="K38" s="20"/>
       <c r="L38" s="21">
@@ -2305,11 +2305,11 @@
       <c r="F39" s="6">
         <v>1</v>
       </c>
-      <c r="G39" s="18"/>
+      <c r="G39" s="18">
+        <v>1</v>
+      </c>
       <c r="H39" s="18"/>
-      <c r="I39" s="6">
-        <v>1</v>
-      </c>
+      <c r="I39" s="6"/>
       <c r="J39" s="18"/>
       <c r="K39" s="20"/>
       <c r="L39" s="21">
@@ -2339,11 +2339,11 @@
       <c r="F40" s="6">
         <v>1</v>
       </c>
-      <c r="G40" s="18"/>
+      <c r="G40" s="18">
+        <v>1</v>
+      </c>
       <c r="H40" s="18"/>
-      <c r="I40" s="6">
-        <v>1</v>
-      </c>
+      <c r="I40" s="6"/>
       <c r="J40" s="18"/>
       <c r="K40" s="20"/>
       <c r="L40" s="21">
@@ -2373,11 +2373,11 @@
       <c r="F41" s="6">
         <v>1</v>
       </c>
-      <c r="G41" s="18"/>
+      <c r="G41" s="18">
+        <v>1</v>
+      </c>
       <c r="H41" s="18"/>
-      <c r="I41" s="6">
-        <v>1</v>
-      </c>
+      <c r="I41" s="6"/>
       <c r="J41" s="18"/>
       <c r="K41" s="20"/>
       <c r="L41" s="21">
@@ -2407,11 +2407,11 @@
       <c r="F42" s="6">
         <v>1</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="18">
+        <v>1</v>
+      </c>
       <c r="H42" s="18"/>
-      <c r="I42" s="6">
-        <v>1</v>
-      </c>
+      <c r="I42" s="6"/>
       <c r="J42" s="18"/>
       <c r="K42" s="20"/>
       <c r="L42" s="21">
@@ -2441,11 +2441,11 @@
       <c r="F43" s="6">
         <v>0</v>
       </c>
-      <c r="G43" s="18"/>
+      <c r="G43" s="18">
+        <v>1</v>
+      </c>
       <c r="H43" s="18"/>
-      <c r="I43" s="6">
-        <v>1</v>
-      </c>
+      <c r="I43" s="6"/>
       <c r="J43" s="18"/>
       <c r="K43" s="20"/>
       <c r="L43" s="21">
@@ -2475,11 +2475,11 @@
       <c r="F44" s="6">
         <v>1</v>
       </c>
-      <c r="G44" s="18"/>
+      <c r="G44" s="18">
+        <v>1</v>
+      </c>
       <c r="H44" s="18"/>
-      <c r="I44" s="6">
-        <v>1</v>
-      </c>
+      <c r="I44" s="6"/>
       <c r="J44" s="18"/>
       <c r="K44" s="20"/>
       <c r="L44" s="21">
@@ -2509,11 +2509,11 @@
       <c r="F45" s="6">
         <v>1</v>
       </c>
-      <c r="G45" s="18"/>
+      <c r="G45" s="18">
+        <v>1</v>
+      </c>
       <c r="H45" s="18"/>
-      <c r="I45" s="6">
-        <v>1</v>
-      </c>
+      <c r="I45" s="6"/>
       <c r="J45" s="18"/>
       <c r="K45" s="20"/>
       <c r="L45" s="21">
@@ -2543,11 +2543,11 @@
       <c r="F46" s="6">
         <v>1</v>
       </c>
-      <c r="G46" s="18"/>
+      <c r="G46" s="18">
+        <v>1</v>
+      </c>
       <c r="H46" s="18"/>
-      <c r="I46" s="6">
-        <v>1</v>
-      </c>
+      <c r="I46" s="6"/>
       <c r="J46" s="18"/>
       <c r="K46" s="20"/>
       <c r="L46" s="21">
@@ -2577,11 +2577,11 @@
       <c r="F47" s="6">
         <v>1</v>
       </c>
-      <c r="G47" s="18"/>
+      <c r="G47" s="18">
+        <v>1</v>
+      </c>
       <c r="H47" s="18"/>
-      <c r="I47" s="6">
-        <v>1</v>
-      </c>
+      <c r="I47" s="6"/>
       <c r="J47" s="18"/>
       <c r="K47" s="20"/>
       <c r="L47" s="21">
@@ -2612,11 +2612,11 @@
       <c r="F48" s="6">
         <v>1</v>
       </c>
-      <c r="G48" s="18"/>
+      <c r="G48" s="18">
+        <v>1</v>
+      </c>
       <c r="H48" s="18"/>
-      <c r="I48" s="6">
-        <v>1</v>
-      </c>
+      <c r="I48" s="6"/>
       <c r="J48" s="18"/>
       <c r="K48" s="20"/>
       <c r="L48" s="21">
@@ -2646,11 +2646,11 @@
       <c r="F49" s="6">
         <v>1</v>
       </c>
-      <c r="G49" s="18"/>
+      <c r="G49" s="18">
+        <v>1</v>
+      </c>
       <c r="H49" s="18"/>
-      <c r="I49" s="6">
-        <v>1</v>
-      </c>
+      <c r="I49" s="6"/>
       <c r="J49" s="18"/>
       <c r="K49" s="20"/>
       <c r="L49" s="21">

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-Jirik\Skola\FJFI\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABE0584-83DA-48CB-8A89-D3D7F71D8609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F216AC9D-2F23-4D2B-8F8F-BBEBB6C95F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
   </bookViews>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F77252F-DDF1-48FB-B55F-5DF7ACE04987}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -1127,7 +1127,7 @@
       <c r="K4" s="20"/>
       <c r="L4" s="21">
         <f t="shared" ref="L4:L25" si="0">SUM(E4:K4)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-Jirik\Skola\FJFI\b_PhD\NMEcv\NME1cvBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F216AC9D-2F23-4D2B-8F8F-BBEBB6C95F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BF3F3C-9FEE-4DD2-BEF4-A4956A4ABBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F77252F-DDF1-48FB-B55F-5DF7ACE04987}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1055,7 @@
         <v>20</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1080,13 +1080,15 @@
       <c r="G3" s="18">
         <v>1</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="20"/>
       <c r="L3" s="21">
         <f>SUM(E3:K3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
@@ -1096,7 +1098,7 @@
       </c>
       <c r="S3">
         <f>S2-3</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1121,13 +1123,15 @@
       <c r="G4" s="18">
         <v>1</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="18">
+        <v>1</v>
+      </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21">
         <f t="shared" ref="L4:L25" si="0">SUM(E4:K4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
@@ -1155,13 +1159,15 @@
       <c r="G5" s="18">
         <v>1</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="20"/>
       <c r="L5" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
@@ -1189,13 +1195,15 @@
       <c r="G6" s="18">
         <v>0</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="20"/>
       <c r="L6" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
@@ -1223,13 +1231,15 @@
       <c r="G7" s="18">
         <v>1</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="20"/>
       <c r="L7" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
@@ -1257,13 +1267,15 @@
       <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="20"/>
       <c r="L8" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -1291,13 +1303,15 @@
       <c r="G9" s="18">
         <v>1</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="18">
+        <v>1</v>
+      </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="20"/>
       <c r="L9" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
@@ -1325,13 +1339,15 @@
       <c r="G10" s="18">
         <v>1</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="20"/>
       <c r="L10" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
@@ -1359,13 +1375,15 @@
       <c r="G11" s="18">
         <v>0</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="20"/>
       <c r="L11" s="21">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -1393,13 +1411,15 @@
       <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="20"/>
       <c r="L12" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
@@ -1427,12 +1447,15 @@
       <c r="G13" s="18">
         <v>1</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="20"/>
       <c r="L13" s="21">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
@@ -1460,13 +1483,15 @@
       <c r="G14" s="18">
         <v>1</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="20"/>
       <c r="L14" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
@@ -1494,13 +1519,15 @@
       <c r="G15" s="18">
         <v>1</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="20"/>
       <c r="L15" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
@@ -1528,13 +1555,15 @@
       <c r="G16" s="18">
         <v>1</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="20"/>
       <c r="L16" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
@@ -1562,13 +1591,15 @@
       <c r="G17" s="18">
         <v>1</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="18">
+        <v>1</v>
+      </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="20"/>
       <c r="L17" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
@@ -1596,13 +1627,15 @@
       <c r="G18" s="18">
         <v>1</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="18">
+        <v>1</v>
+      </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="20"/>
       <c r="L18" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
@@ -1630,13 +1663,15 @@
       <c r="G19" s="18">
         <v>1</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="18">
+        <v>1</v>
+      </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="20"/>
       <c r="L19" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
@@ -1666,13 +1701,15 @@
       <c r="G20" s="18">
         <v>1</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="18">
+        <v>1</v>
+      </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="20"/>
       <c r="L20" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
@@ -1700,13 +1737,15 @@
       <c r="G21" s="18">
         <v>1</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="20"/>
       <c r="L21" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
@@ -1734,13 +1773,15 @@
       <c r="G22" s="18">
         <v>1</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="18">
+        <v>1</v>
+      </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="20"/>
       <c r="L22" s="21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
@@ -1768,13 +1809,15 @@
       <c r="G23" s="18">
         <v>1</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="18">
+        <v>1</v>
+      </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="20"/>
       <c r="L23" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
@@ -1802,13 +1845,15 @@
       <c r="G24" s="18">
         <v>1</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="18">
+        <v>1</v>
+      </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="20"/>
       <c r="L24" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
@@ -1836,13 +1881,15 @@
       <c r="G25" s="18">
         <v>1</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="18">
+        <v>1</v>
+      </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="20"/>
       <c r="L25" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
@@ -1967,12 +2014,15 @@
       <c r="G29" s="18">
         <v>1</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="18">
+        <v>1</v>
+      </c>
       <c r="I29" s="6"/>
       <c r="J29" s="18"/>
       <c r="K29" s="20"/>
       <c r="L29" s="21">
-        <v>5</v>
+        <f t="shared" ref="L29:L49" si="1">SUM(E29:K29)</f>
+        <v>6</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
@@ -2000,13 +2050,15 @@
       <c r="G30" s="18">
         <v>0</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="18">
+        <v>1</v>
+      </c>
       <c r="I30" s="6"/>
       <c r="J30" s="18"/>
       <c r="K30" s="20"/>
       <c r="L30" s="21">
-        <f t="shared" ref="L30:L49" si="1">SUM(E30:K30)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -2036,13 +2088,15 @@
       <c r="G31" s="18">
         <v>1</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
       <c r="I31" s="6"/>
       <c r="J31" s="18"/>
       <c r="K31" s="20"/>
       <c r="L31" s="21">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -2070,13 +2124,15 @@
       <c r="G32" s="18">
         <v>1</v>
       </c>
-      <c r="H32" s="18"/>
+      <c r="H32" s="18">
+        <v>1</v>
+      </c>
       <c r="I32" s="6"/>
       <c r="J32" s="18"/>
       <c r="K32" s="20"/>
       <c r="L32" s="21">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -2104,13 +2160,15 @@
       <c r="G33" s="18">
         <v>1</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="18">
+        <v>1</v>
+      </c>
       <c r="I33" s="6"/>
       <c r="J33" s="18"/>
       <c r="K33" s="20"/>
       <c r="L33" s="21">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -2138,7 +2196,9 @@
       <c r="G34" s="18">
         <v>1</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
       <c r="I34" s="6"/>
       <c r="J34" s="18"/>
       <c r="K34" s="20"/>
@@ -2172,13 +2232,15 @@
       <c r="G35" s="18">
         <v>1</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="18">
+        <v>1</v>
+      </c>
       <c r="I35" s="6"/>
       <c r="J35" s="18"/>
       <c r="K35" s="20"/>
       <c r="L35" s="21">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -2206,13 +2268,15 @@
       <c r="G36" s="18">
         <v>1</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="18">
+        <v>1</v>
+      </c>
       <c r="I36" s="6"/>
       <c r="J36" s="18"/>
       <c r="K36" s="20"/>
       <c r="L36" s="21">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -2240,13 +2304,15 @@
       <c r="G37" s="18">
         <v>1</v>
       </c>
-      <c r="H37" s="18"/>
+      <c r="H37" s="18">
+        <v>1</v>
+      </c>
       <c r="I37" s="6"/>
       <c r="J37" s="18"/>
       <c r="K37" s="20"/>
       <c r="L37" s="21">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -2274,13 +2340,15 @@
       <c r="G38" s="18">
         <v>1</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="18">
+        <v>1</v>
+      </c>
       <c r="I38" s="6"/>
       <c r="J38" s="18"/>
       <c r="K38" s="20"/>
       <c r="L38" s="21">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -2308,13 +2376,15 @@
       <c r="G39" s="18">
         <v>1</v>
       </c>
-      <c r="H39" s="18"/>
+      <c r="H39" s="18">
+        <v>1</v>
+      </c>
       <c r="I39" s="6"/>
       <c r="J39" s="18"/>
       <c r="K39" s="20"/>
       <c r="L39" s="21">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -2342,7 +2412,9 @@
       <c r="G40" s="18">
         <v>1</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="H40" s="18">
+        <v>0</v>
+      </c>
       <c r="I40" s="6"/>
       <c r="J40" s="18"/>
       <c r="K40" s="20"/>
@@ -2376,13 +2448,15 @@
       <c r="G41" s="18">
         <v>1</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="H41" s="18">
+        <v>1</v>
+      </c>
       <c r="I41" s="6"/>
       <c r="J41" s="18"/>
       <c r="K41" s="20"/>
       <c r="L41" s="21">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -2410,13 +2484,15 @@
       <c r="G42" s="18">
         <v>1</v>
       </c>
-      <c r="H42" s="18"/>
+      <c r="H42" s="18">
+        <v>1</v>
+      </c>
       <c r="I42" s="6"/>
       <c r="J42" s="18"/>
       <c r="K42" s="20"/>
       <c r="L42" s="21">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -2444,7 +2520,9 @@
       <c r="G43" s="18">
         <v>1</v>
       </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
       <c r="I43" s="6"/>
       <c r="J43" s="18"/>
       <c r="K43" s="20"/>
@@ -2478,13 +2556,15 @@
       <c r="G44" s="18">
         <v>1</v>
       </c>
-      <c r="H44" s="18"/>
+      <c r="H44" s="18">
+        <v>1</v>
+      </c>
       <c r="I44" s="6"/>
       <c r="J44" s="18"/>
       <c r="K44" s="20"/>
       <c r="L44" s="21">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -2512,13 +2592,15 @@
       <c r="G45" s="18">
         <v>1</v>
       </c>
-      <c r="H45" s="18"/>
+      <c r="H45" s="18">
+        <v>1</v>
+      </c>
       <c r="I45" s="6"/>
       <c r="J45" s="18"/>
       <c r="K45" s="20"/>
       <c r="L45" s="21">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -2546,13 +2628,15 @@
       <c r="G46" s="18">
         <v>1</v>
       </c>
-      <c r="H46" s="18"/>
+      <c r="H46" s="18">
+        <v>1</v>
+      </c>
       <c r="I46" s="6"/>
       <c r="J46" s="18"/>
       <c r="K46" s="20"/>
       <c r="L46" s="21">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -2580,13 +2664,15 @@
       <c r="G47" s="18">
         <v>1</v>
       </c>
-      <c r="H47" s="18"/>
+      <c r="H47" s="18">
+        <v>1</v>
+      </c>
       <c r="I47" s="6"/>
       <c r="J47" s="18"/>
       <c r="K47" s="20"/>
       <c r="L47" s="21">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -2615,13 +2701,15 @@
       <c r="G48" s="18">
         <v>1</v>
       </c>
-      <c r="H48" s="18"/>
+      <c r="H48" s="18">
+        <v>1</v>
+      </c>
       <c r="I48" s="6"/>
       <c r="J48" s="18"/>
       <c r="K48" s="20"/>
       <c r="L48" s="21">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -2649,13 +2737,15 @@
       <c r="G49" s="18">
         <v>1</v>
       </c>
-      <c r="H49" s="18"/>
+      <c r="H49" s="18">
+        <v>1</v>
+      </c>
       <c r="I49" s="6"/>
       <c r="J49" s="18"/>
       <c r="K49" s="20"/>
       <c r="L49" s="21">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BF3F3C-9FEE-4DD2-BEF4-A4956A4ABBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1037C0DE-6F95-46F3-A903-1D86D81DF479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
+    <workbookView xWindow="12480" yWindow="0" windowWidth="25920" windowHeight="21000" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="113">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t>-1 absence (omluvenka na 19.4.)</t>
+  </si>
+  <si>
+    <t>Odevzdané úkoly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              UZNANÉ ÚKOLY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, </t>
+  </si>
+  <si>
+    <t>Zápočet</t>
   </si>
 </sst>
 </file>
@@ -451,7 +463,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -515,11 +527,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,11 +637,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -956,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F77252F-DDF1-48FB-B55F-5DF7ACE04987}">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,14 +1044,16 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" customWidth="1"/>
-    <col min="16" max="16" width="39.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="14" width="8.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="34.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1006,14 +1083,17 @@
       </c>
       <c r="L1" s="8"/>
       <c r="M1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="P1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1050,15 +1130,13 @@
       <c r="N2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="R2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O2" s="36"/>
+      <c r="P2" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1092,16 +1170,14 @@
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
-      <c r="P3" s="34"/>
-      <c r="R3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3">
-        <f>S2-3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O3" s="37"/>
+      <c r="P3" s="18" t="str">
+        <f>IF(AND(L3&gt;=D54, M3=2, N3=2), "ANO", "NE")</f>
+        <v>NE</v>
+      </c>
+      <c r="R3" s="34"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1134,10 +1210,19 @@
         <v>8</v>
       </c>
       <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="P4" s="34"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N4" s="22">
+        <v>1</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="18" t="str">
+        <f t="shared" ref="P4:P49" si="1">IF(AND(L4&gt;=D55, M4=2, N4=2), "ANO", "NE")</f>
+        <v>NE</v>
+      </c>
+      <c r="R4" s="34"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1171,9 +1256,16 @@
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
-      <c r="P5" s="34"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O5" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P5" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1207,9 +1299,16 @@
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
-      <c r="P6" s="34"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O6" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P6" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1242,10 +1341,19 @@
         <v>9</v>
       </c>
       <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="P7" s="34"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N7" s="22">
+        <v>1</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1279,9 +1387,14 @@
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
-      <c r="P8" s="34"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O8" s="37"/>
+      <c r="P8" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R8" s="34"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -1315,9 +1428,14 @@
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
-      <c r="P9" s="34"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O9" s="37"/>
+      <c r="P9" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -1351,9 +1469,14 @@
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
-      <c r="P10" s="34"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O10" s="37"/>
+      <c r="P10" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -1386,10 +1509,19 @@
         <v>6</v>
       </c>
       <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N11" s="22">
+        <v>1</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1423,9 +1555,14 @@
       </c>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
-      <c r="P12" s="34"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O12" s="37"/>
+      <c r="P12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -1459,9 +1596,14 @@
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
-      <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O13" s="37"/>
+      <c r="P13" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1495,9 +1637,16 @@
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
-      <c r="P14" s="34"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O14" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -1531,9 +1680,14 @@
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
-      <c r="P15" s="34"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O15" s="37"/>
+      <c r="P15" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R15" s="34"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -1567,9 +1721,14 @@
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
-      <c r="P16" s="34"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O16" s="37"/>
+      <c r="P16" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R16" s="34"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -1603,9 +1762,14 @@
       </c>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
-      <c r="P17" s="34"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O17" s="37"/>
+      <c r="P17" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -1638,10 +1802,19 @@
         <v>8</v>
       </c>
       <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="P18" s="34"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N18" s="22">
+        <v>1</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R18" s="34"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -1675,11 +1848,18 @@
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
-      <c r="P19" s="34" t="s">
+      <c r="O19" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R19" s="34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -1712,10 +1892,19 @@
         <v>9</v>
       </c>
       <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="P20" s="34"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N20" s="22">
+        <v>1</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R20" s="34"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>19</v>
       </c>
@@ -1748,10 +1937,19 @@
         <v>9</v>
       </c>
       <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="P21" s="34"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N21" s="22">
+        <v>1</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R21" s="34"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -1785,9 +1983,14 @@
       </c>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
-      <c r="P22" s="34"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O22" s="37"/>
+      <c r="P22" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R22" s="34"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>21</v>
       </c>
@@ -1820,10 +2023,19 @@
         <v>9</v>
       </c>
       <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="P23" s="34"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N23" s="22">
+        <v>1</v>
+      </c>
+      <c r="O23" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R23" s="34"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -1856,10 +2068,19 @@
         <v>8</v>
       </c>
       <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="P24" s="34"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N24" s="22">
+        <v>1</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R24" s="34"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -1893,9 +2114,14 @@
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
-      <c r="P25" s="34"/>
-    </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="37"/>
+      <c r="P25" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R25" s="34"/>
+    </row>
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -1914,9 +2140,14 @@
       <c r="N26" s="22">
         <v>0</v>
       </c>
-      <c r="P26" s="34"/>
-    </row>
-    <row r="27" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="O26" s="37"/>
+      <c r="P26" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R26" s="34"/>
+    </row>
+    <row r="27" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -1949,11 +2180,13 @@
         <v>8</v>
       </c>
       <c r="N27" s="9"/>
-      <c r="P27" t="s">
+      <c r="O27" s="35"/>
+      <c r="P27" s="41"/>
+      <c r="R27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>70</v>
@@ -1990,9 +2223,13 @@
       <c r="N28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="34"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O28" s="36"/>
+      <c r="P28" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="R28" s="34"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -2021,14 +2258,19 @@
       <c r="J29" s="18"/>
       <c r="K29" s="20"/>
       <c r="L29" s="21">
-        <f t="shared" ref="L29:L49" si="1">SUM(E29:K29)</f>
+        <f t="shared" ref="L29:L49" si="2">SUM(E29:K29)</f>
         <v>6</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
-      <c r="P29" s="34"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O29" s="37"/>
+      <c r="P29" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R29" s="34"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>2</v>
       </c>
@@ -2057,16 +2299,21 @@
       <c r="J30" s="18"/>
       <c r="K30" s="20"/>
       <c r="L30" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
-      <c r="P30" s="34" t="s">
+      <c r="O30" s="37"/>
+      <c r="P30" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R30" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>3</v>
       </c>
@@ -2095,14 +2342,19 @@
       <c r="J31" s="18"/>
       <c r="K31" s="20"/>
       <c r="L31" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
-      <c r="P31" s="34"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O31" s="37"/>
+      <c r="P31" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R31" s="34"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>4</v>
       </c>
@@ -2131,14 +2383,19 @@
       <c r="J32" s="18"/>
       <c r="K32" s="20"/>
       <c r="L32" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
-      <c r="P32" s="34"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O32" s="37"/>
+      <c r="P32" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R32" s="34"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>5</v>
       </c>
@@ -2167,14 +2424,19 @@
       <c r="J33" s="18"/>
       <c r="K33" s="20"/>
       <c r="L33" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
-      <c r="P33" s="34"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O33" s="37"/>
+      <c r="P33" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R33" s="34"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>6</v>
       </c>
@@ -2203,14 +2465,19 @@
       <c r="J34" s="18"/>
       <c r="K34" s="20"/>
       <c r="L34" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
-      <c r="P34" s="34"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O34" s="37"/>
+      <c r="P34" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R34" s="34"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>7</v>
       </c>
@@ -2239,14 +2506,19 @@
       <c r="J35" s="18"/>
       <c r="K35" s="20"/>
       <c r="L35" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
-      <c r="P35" s="34"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O35" s="37"/>
+      <c r="P35" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R35" s="34"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>8</v>
       </c>
@@ -2275,14 +2547,19 @@
       <c r="J36" s="18"/>
       <c r="K36" s="20"/>
       <c r="L36" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
-      <c r="P36" s="34"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O36" s="37"/>
+      <c r="P36" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R36" s="34"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>9</v>
       </c>
@@ -2311,14 +2588,19 @@
       <c r="J37" s="18"/>
       <c r="K37" s="20"/>
       <c r="L37" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
-      <c r="P37" s="34"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O37" s="37"/>
+      <c r="P37" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R37" s="34"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>10</v>
       </c>
@@ -2347,14 +2629,19 @@
       <c r="J38" s="18"/>
       <c r="K38" s="20"/>
       <c r="L38" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
-      <c r="P38" s="34"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O38" s="37"/>
+      <c r="P38" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R38" s="34"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>11</v>
       </c>
@@ -2383,14 +2670,23 @@
       <c r="J39" s="18"/>
       <c r="K39" s="20"/>
       <c r="L39" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="P39" s="34"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N39" s="22">
+        <v>1</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P39" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R39" s="34"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>12</v>
       </c>
@@ -2419,14 +2715,19 @@
       <c r="J40" s="18"/>
       <c r="K40" s="20"/>
       <c r="L40" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
-      <c r="P40" s="34"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O40" s="37"/>
+      <c r="P40" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R40" s="34"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>13</v>
       </c>
@@ -2455,14 +2756,19 @@
       <c r="J41" s="18"/>
       <c r="K41" s="20"/>
       <c r="L41" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
-      <c r="P41" s="34"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O41" s="37"/>
+      <c r="P41" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R41" s="34"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>14</v>
       </c>
@@ -2491,14 +2797,19 @@
       <c r="J42" s="18"/>
       <c r="K42" s="20"/>
       <c r="L42" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
-      <c r="P42" s="34"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O42" s="37"/>
+      <c r="P42" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R42" s="34"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>15</v>
       </c>
@@ -2527,14 +2838,19 @@
       <c r="J43" s="18"/>
       <c r="K43" s="20"/>
       <c r="L43" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
-      <c r="P43" s="34"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O43" s="37"/>
+      <c r="P43" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R43" s="34"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>16</v>
       </c>
@@ -2563,14 +2879,19 @@
       <c r="J44" s="18"/>
       <c r="K44" s="20"/>
       <c r="L44" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
-      <c r="P44" s="34"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O44" s="37"/>
+      <c r="P44" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R44" s="34"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>17</v>
       </c>
@@ -2599,14 +2920,23 @@
       <c r="J45" s="18"/>
       <c r="K45" s="20"/>
       <c r="L45" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="P45" s="34"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N45" s="22">
+        <v>1</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P45" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R45" s="34"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>18</v>
       </c>
@@ -2635,14 +2965,19 @@
       <c r="J46" s="18"/>
       <c r="K46" s="20"/>
       <c r="L46" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
-      <c r="P46" s="34"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O46" s="37"/>
+      <c r="P46" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R46" s="34"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>19</v>
       </c>
@@ -2671,15 +3006,20 @@
       <c r="J47" s="18"/>
       <c r="K47" s="20"/>
       <c r="L47" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="34"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O47" s="37"/>
+      <c r="P47" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="34"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>20</v>
       </c>
@@ -2708,14 +3048,19 @@
       <c r="J48" s="18"/>
       <c r="K48" s="20"/>
       <c r="L48" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
-      <c r="P48" s="34"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O48" s="37"/>
+      <c r="P48" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R48" s="34"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>21</v>
       </c>
@@ -2744,14 +3089,19 @@
       <c r="J49" s="18"/>
       <c r="K49" s="20"/>
       <c r="L49" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
-      <c r="P49" s="34"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O49" s="37"/>
+      <c r="P49" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="R49" s="34"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="D50" s="24"/>
       <c r="E50" s="31"/>
@@ -2761,8 +3111,12 @@
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
       <c r="M50" s="32"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N50" s="39">
+        <f>SUM(N29:N49,N3:N25)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
       <c r="D51" s="24"/>
       <c r="E51" s="31"/>
@@ -2774,7 +3128,7 @@
       <c r="L51" s="24"/>
       <c r="M51" s="32"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="D52" s="24"/>
       <c r="E52" s="31"/>
@@ -2786,9 +3140,14 @@
       <c r="L52" s="24"/>
       <c r="M52" s="32"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
-      <c r="D53" s="24"/>
+      <c r="C53" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
       <c r="E53" s="31"/>
       <c r="F53" s="24"/>
       <c r="H53" s="33"/>
@@ -2798,9 +3157,15 @@
       <c r="L53" s="24"/>
       <c r="M53" s="32"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="C54" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <f>D53-3</f>
+        <v>6</v>
+      </c>
       <c r="E54" s="31"/>
       <c r="F54" s="26"/>
       <c r="H54" s="14"/>
@@ -2810,7 +3175,7 @@
       <c r="L54" s="24"/>
       <c r="M54" s="32"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="D55" s="24"/>
       <c r="E55" s="31"/>
@@ -2823,7 +3188,7 @@
       <c r="L55" s="24"/>
       <c r="M55" s="32"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="D56" s="24"/>
       <c r="E56" s="31"/>
@@ -2836,7 +3201,7 @@
       <c r="L56" s="24"/>
       <c r="M56" s="32"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="D57" s="24"/>
       <c r="E57" s="31"/>
@@ -2849,7 +3214,7 @@
       <c r="L57" s="24"/>
       <c r="M57" s="32"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="D58" s="24"/>
       <c r="E58" s="31"/>
@@ -2862,7 +3227,7 @@
       <c r="L58" s="24"/>
       <c r="M58" s="32"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="D59" s="24"/>
       <c r="E59" s="31"/>
@@ -2875,7 +3240,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="32"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="D60" s="24"/>
       <c r="E60" s="31"/>
@@ -2887,7 +3252,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="32"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="D61" s="24"/>
       <c r="E61" s="31"/>
@@ -2900,7 +3265,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="32"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="D62" s="24"/>
       <c r="E62" s="31"/>
@@ -2913,7 +3278,7 @@
       <c r="L62" s="24"/>
       <c r="M62" s="32"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="D63" s="24"/>
       <c r="E63" s="31"/>
@@ -2926,7 +3291,7 @@
       <c r="L63" s="24"/>
       <c r="M63" s="32"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="D64" s="24"/>
       <c r="E64" s="31"/>
@@ -2990,38 +3355,8 @@
       <c r="M68" s="32"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L3:L25">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="$S$3"/>
-        <cfvo type="num" val="$S$2"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29:L49">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
-      <formula>$S$3</formula>
-    </cfRule>
+  <conditionalFormatting sqref="M3:N26">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="$S$3"/>
-        <cfvo type="num" val="$S$2"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N26">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3033,7 +3368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:N49">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3044,6 +3379,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L25 L29:L49">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
+      <formula>$D$54</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$D$54"/>
+        <cfvo type="num" val="$D$53"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1037C0DE-6F95-46F3-A903-1D86D81DF479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E1C6E5-5B3F-4427-81AD-114248D684FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="0" windowWidth="25920" windowHeight="21000" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -637,20 +637,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,42 +651,7 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1034,7 +992,7 @@
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1044,7 @@
         <v>110</v>
       </c>
       <c r="N1" s="3"/>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="36" t="s">
         <v>109</v>
       </c>
       <c r="R1" t="s">
@@ -1130,8 +1088,8 @@
       <c r="N2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="40" t="s">
+      <c r="O2" s="29"/>
+      <c r="P2" s="5" t="s">
         <v>112</v>
       </c>
       <c r="Q2" s="14"/>
@@ -1162,7 +1120,9 @@
         <v>1</v>
       </c>
       <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
       <c r="K3" s="20"/>
       <c r="L3" s="21">
         <f>SUM(E3:K3)</f>
@@ -1170,7 +1130,7 @@
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
-      <c r="O3" s="37"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="18" t="str">
         <f>IF(AND(L3&gt;=D54, M3=2, N3=2), "ANO", "NE")</f>
         <v>NE</v>
@@ -1203,17 +1163,19 @@
         <v>1</v>
       </c>
       <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="J4" s="18">
+        <v>1</v>
+      </c>
       <c r="K4" s="20"/>
       <c r="L4" s="21">
         <f t="shared" ref="L4:L25" si="0">SUM(E4:K4)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22">
         <v>1</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P4" s="18" t="str">
@@ -1248,15 +1210,17 @@
         <v>1</v>
       </c>
       <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="J5" s="18">
+        <v>1</v>
+      </c>
       <c r="K5" s="20"/>
       <c r="L5" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P5" s="18" t="str">
@@ -1291,7 +1255,9 @@
         <v>1</v>
       </c>
       <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
       <c r="K6" s="20"/>
       <c r="L6" s="21">
         <f t="shared" si="0"/>
@@ -1299,7 +1265,7 @@
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P6" s="18" t="str">
@@ -1334,17 +1300,19 @@
         <v>1</v>
       </c>
       <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
       <c r="K7" s="20"/>
       <c r="L7" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="22">
         <v>1</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P7" s="18" t="str">
@@ -1379,7 +1347,9 @@
         <v>1</v>
       </c>
       <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
       <c r="K8" s="20"/>
       <c r="L8" s="21">
         <f t="shared" si="0"/>
@@ -1387,7 +1357,7 @@
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
-      <c r="O8" s="37"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -1420,7 +1390,9 @@
         <v>1</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
       <c r="K9" s="20"/>
       <c r="L9" s="21">
         <f t="shared" si="0"/>
@@ -1428,7 +1400,7 @@
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
-      <c r="O9" s="37"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -1461,15 +1433,17 @@
         <v>1</v>
       </c>
       <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="J10" s="18">
+        <v>1</v>
+      </c>
       <c r="K10" s="20"/>
       <c r="L10" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
-      <c r="O10" s="37"/>
+      <c r="O10" s="35"/>
       <c r="P10" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -1502,17 +1476,19 @@
         <v>1</v>
       </c>
       <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="J11" s="18">
+        <v>1</v>
+      </c>
       <c r="K11" s="20"/>
       <c r="L11" s="21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22">
         <v>1</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="O11" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P11" s="18" t="str">
@@ -1547,7 +1523,9 @@
         <v>1</v>
       </c>
       <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
       <c r="K12" s="20"/>
       <c r="L12" s="21">
         <f t="shared" si="0"/>
@@ -1555,7 +1533,7 @@
       </c>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
-      <c r="O12" s="37"/>
+      <c r="O12" s="35"/>
       <c r="P12" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -1588,7 +1566,9 @@
         <v>1</v>
       </c>
       <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
       <c r="K13" s="20"/>
       <c r="L13" s="21">
         <f t="shared" si="0"/>
@@ -1596,7 +1576,7 @@
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
-      <c r="O13" s="37"/>
+      <c r="O13" s="35"/>
       <c r="P13" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -1629,15 +1609,17 @@
         <v>1</v>
       </c>
       <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
       <c r="K14" s="20"/>
       <c r="L14" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P14" s="18" t="str">
@@ -1672,15 +1654,17 @@
         <v>1</v>
       </c>
       <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
       <c r="K15" s="20"/>
       <c r="L15" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
-      <c r="O15" s="37"/>
+      <c r="O15" s="35"/>
       <c r="P15" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -1713,15 +1697,17 @@
         <v>1</v>
       </c>
       <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="J16" s="18">
+        <v>1</v>
+      </c>
       <c r="K16" s="20"/>
       <c r="L16" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
-      <c r="O16" s="37"/>
+      <c r="O16" s="35"/>
       <c r="P16" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -1754,15 +1740,17 @@
         <v>1</v>
       </c>
       <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="J17" s="18">
+        <v>1</v>
+      </c>
       <c r="K17" s="20"/>
       <c r="L17" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
-      <c r="O17" s="37"/>
+      <c r="O17" s="35"/>
       <c r="P17" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -1795,17 +1783,19 @@
         <v>1</v>
       </c>
       <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
       <c r="K18" s="20"/>
       <c r="L18" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22">
         <v>1</v>
       </c>
-      <c r="O18" s="37" t="s">
+      <c r="O18" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P18" s="18" t="str">
@@ -1840,15 +1830,17 @@
         <v>1</v>
       </c>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18">
+        <v>1</v>
+      </c>
       <c r="K19" s="20"/>
       <c r="L19" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
-      <c r="O19" s="37" t="s">
+      <c r="O19" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P19" s="18" t="str">
@@ -1885,17 +1877,19 @@
         <v>1</v>
       </c>
       <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="J20" s="18">
+        <v>1</v>
+      </c>
       <c r="K20" s="20"/>
       <c r="L20" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22">
         <v>1</v>
       </c>
-      <c r="O20" s="37" t="s">
+      <c r="O20" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P20" s="18" t="str">
@@ -1930,17 +1924,19 @@
         <v>1</v>
       </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="J21" s="18">
+        <v>1</v>
+      </c>
       <c r="K21" s="20"/>
       <c r="L21" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M21" s="22"/>
       <c r="N21" s="22">
         <v>1</v>
       </c>
-      <c r="O21" s="37" t="s">
+      <c r="O21" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P21" s="18" t="str">
@@ -1975,7 +1971,9 @@
         <v>1</v>
       </c>
       <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="J22" s="18">
+        <v>0</v>
+      </c>
       <c r="K22" s="20"/>
       <c r="L22" s="21">
         <f t="shared" si="0"/>
@@ -1983,7 +1981,7 @@
       </c>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
-      <c r="O22" s="37"/>
+      <c r="O22" s="35"/>
       <c r="P22" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2016,7 +2014,9 @@
         <v>1</v>
       </c>
       <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
       <c r="K23" s="20"/>
       <c r="L23" s="21">
         <f t="shared" si="0"/>
@@ -2026,7 +2026,7 @@
       <c r="N23" s="22">
         <v>1</v>
       </c>
-      <c r="O23" s="37" t="s">
+      <c r="O23" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P23" s="18" t="str">
@@ -2061,17 +2061,19 @@
         <v>1</v>
       </c>
       <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="J24" s="18">
+        <v>1</v>
+      </c>
       <c r="K24" s="20"/>
       <c r="L24" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22">
         <v>1</v>
       </c>
-      <c r="O24" s="37" t="s">
+      <c r="O24" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P24" s="18" t="str">
@@ -2106,15 +2108,17 @@
         <v>1</v>
       </c>
       <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="J25" s="18">
+        <v>1</v>
+      </c>
       <c r="K25" s="20"/>
       <c r="L25" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
-      <c r="O25" s="37"/>
+      <c r="O25" s="35"/>
       <c r="P25" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2140,7 +2144,7 @@
       <c r="N26" s="22">
         <v>0</v>
       </c>
-      <c r="O26" s="37"/>
+      <c r="O26" s="35"/>
       <c r="P26" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2180,8 +2184,7 @@
         <v>8</v>
       </c>
       <c r="N27" s="9"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="41"/>
+      <c r="P27" s="38"/>
       <c r="R27" t="s">
         <v>106</v>
       </c>
@@ -2223,8 +2226,8 @@
       <c r="N28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="40" t="s">
+      <c r="O28" s="29"/>
+      <c r="P28" s="5" t="s">
         <v>112</v>
       </c>
       <c r="R28" s="34"/>
@@ -2263,7 +2266,7 @@
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
-      <c r="O29" s="37"/>
+      <c r="O29" s="35"/>
       <c r="P29" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2304,7 +2307,7 @@
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
-      <c r="O30" s="37"/>
+      <c r="O30" s="35"/>
       <c r="P30" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2347,7 +2350,7 @@
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
-      <c r="O31" s="37"/>
+      <c r="O31" s="35"/>
       <c r="P31" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2388,7 +2391,7 @@
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
-      <c r="O32" s="37"/>
+      <c r="O32" s="35"/>
       <c r="P32" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2429,7 +2432,7 @@
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
-      <c r="O33" s="37"/>
+      <c r="O33" s="35"/>
       <c r="P33" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2470,7 +2473,7 @@
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
-      <c r="O34" s="37"/>
+      <c r="O34" s="35"/>
       <c r="P34" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2511,7 +2514,7 @@
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
-      <c r="O35" s="37"/>
+      <c r="O35" s="35"/>
       <c r="P35" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2552,7 +2555,7 @@
       </c>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
-      <c r="O36" s="37"/>
+      <c r="O36" s="35"/>
       <c r="P36" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2593,7 +2596,7 @@
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
-      <c r="O37" s="37"/>
+      <c r="O37" s="35"/>
       <c r="P37" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2634,7 +2637,7 @@
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
-      <c r="O38" s="37"/>
+      <c r="O38" s="35"/>
       <c r="P38" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2677,7 +2680,7 @@
       <c r="N39" s="22">
         <v>1</v>
       </c>
-      <c r="O39" s="37" t="s">
+      <c r="O39" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P39" s="18" t="str">
@@ -2720,7 +2723,7 @@
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
-      <c r="O40" s="37"/>
+      <c r="O40" s="35"/>
       <c r="P40" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2761,7 +2764,7 @@
       </c>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
-      <c r="O41" s="37"/>
+      <c r="O41" s="35"/>
       <c r="P41" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2802,7 +2805,7 @@
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
-      <c r="O42" s="37"/>
+      <c r="O42" s="35"/>
       <c r="P42" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2843,7 +2846,7 @@
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
-      <c r="O43" s="37"/>
+      <c r="O43" s="35"/>
       <c r="P43" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2884,7 +2887,7 @@
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
-      <c r="O44" s="37"/>
+      <c r="O44" s="35"/>
       <c r="P44" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2927,7 +2930,7 @@
       <c r="N45" s="22">
         <v>1</v>
       </c>
-      <c r="O45" s="37" t="s">
+      <c r="O45" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P45" s="18" t="str">
@@ -2970,7 +2973,7 @@
       </c>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
-      <c r="O46" s="37"/>
+      <c r="O46" s="35"/>
       <c r="P46" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -3011,7 +3014,7 @@
       </c>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
-      <c r="O47" s="37"/>
+      <c r="O47" s="35"/>
       <c r="P47" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -3053,7 +3056,7 @@
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
-      <c r="O48" s="37"/>
+      <c r="O48" s="35"/>
       <c r="P48" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -3094,7 +3097,7 @@
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
-      <c r="O49" s="37"/>
+      <c r="O49" s="35"/>
       <c r="P49" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -3111,7 +3114,7 @@
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
       <c r="M50" s="32"/>
-      <c r="N50" s="39">
+      <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
         <v>10</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>20</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="24"/>
@@ -3164,7 +3167,7 @@
       </c>
       <c r="D54">
         <f>D53-3</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E54" s="31"/>
       <c r="F54" s="26"/>
@@ -3355,6 +3358,21 @@
       <c r="M68" s="32"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L3:L25 L29:L49">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
+      <formula>$D$54</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$D$54"/>
+        <cfvo type="num" val="$D$53"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M3:N26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -3379,21 +3397,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L25 L29:L49">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
-      <formula>$D$54</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="$D$54"/>
-        <cfvo type="num" val="$D$53"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E1C6E5-5B3F-4427-81AD-114248D684FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290CCB1F-D099-4165-A3D4-0122AE6303AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
+    <workbookView xWindow="5205" yWindow="2445" windowWidth="28800" windowHeight="15435" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F77252F-DDF1-48FB-B55F-5DF7ACE04987}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,14 +1119,16 @@
       <c r="H3" s="18">
         <v>1</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
       <c r="J3" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="20"/>
       <c r="L3" s="21">
         <f>SUM(E3:K3)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
@@ -1162,7 +1164,9 @@
       <c r="H4" s="18">
         <v>1</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
       <c r="J4" s="18">
         <v>1</v>
       </c>
@@ -1209,7 +1213,9 @@
       <c r="H5" s="18">
         <v>1</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
       <c r="J5" s="18">
         <v>1</v>
       </c>
@@ -1254,14 +1260,16 @@
       <c r="H6" s="18">
         <v>1</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
       <c r="J6" s="18">
         <v>0</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
@@ -1299,14 +1307,16 @@
       <c r="H7" s="18">
         <v>1</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
       <c r="J7" s="18">
         <v>1</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="22">
@@ -1346,14 +1356,16 @@
       <c r="H8" s="18">
         <v>1</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
       <c r="J8" s="18">
         <v>0</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -1389,14 +1401,16 @@
       <c r="H9" s="18">
         <v>1</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
       <c r="J9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
@@ -1432,7 +1446,9 @@
       <c r="H10" s="18">
         <v>1</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
       <c r="J10" s="18">
         <v>1</v>
       </c>
@@ -1475,14 +1491,16 @@
       <c r="H11" s="18">
         <v>1</v>
       </c>
-      <c r="I11" s="18"/>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
       <c r="J11" s="18">
         <v>1</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22">
@@ -1522,7 +1540,9 @@
       <c r="H12" s="18">
         <v>1</v>
       </c>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
       <c r="J12" s="18">
         <v>0</v>
       </c>
@@ -1565,7 +1585,9 @@
       <c r="H13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
       <c r="J13" s="18">
         <v>0</v>
       </c>
@@ -1608,14 +1630,16 @@
       <c r="H14" s="18">
         <v>1</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
       <c r="J14" s="18">
         <v>1</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
@@ -1653,7 +1677,9 @@
       <c r="H15" s="18">
         <v>1</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
       <c r="J15" s="18">
         <v>1</v>
       </c>
@@ -1696,14 +1722,16 @@
       <c r="H16" s="18">
         <v>1</v>
       </c>
-      <c r="I16" s="18"/>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
       <c r="J16" s="18">
         <v>1</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
@@ -1739,7 +1767,9 @@
       <c r="H17" s="18">
         <v>1</v>
       </c>
-      <c r="I17" s="18"/>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
       <c r="J17" s="18">
         <v>1</v>
       </c>
@@ -1782,14 +1812,16 @@
       <c r="H18" s="18">
         <v>1</v>
       </c>
-      <c r="I18" s="18"/>
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
       <c r="J18" s="18">
         <v>1</v>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22">
@@ -1829,14 +1861,16 @@
       <c r="H19" s="18">
         <v>1</v>
       </c>
-      <c r="I19" s="18"/>
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
       <c r="J19" s="18">
         <v>1</v>
       </c>
       <c r="K19" s="20"/>
       <c r="L19" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
@@ -1876,14 +1910,16 @@
       <c r="H20" s="18">
         <v>1</v>
       </c>
-      <c r="I20" s="18"/>
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
       <c r="J20" s="18">
         <v>1</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22">
@@ -1923,14 +1959,16 @@
       <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
       <c r="J21" s="18">
         <v>1</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M21" s="22"/>
       <c r="N21" s="22">
@@ -1970,14 +2008,16 @@
       <c r="H22" s="18">
         <v>1</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
       <c r="J22" s="18">
         <v>0</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
@@ -2013,14 +2053,16 @@
       <c r="H23" s="18">
         <v>1</v>
       </c>
-      <c r="I23" s="18"/>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
       <c r="J23" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22">
@@ -2060,14 +2102,16 @@
       <c r="H24" s="18">
         <v>1</v>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="18">
+        <v>1</v>
+      </c>
       <c r="J24" s="18">
         <v>1</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22">
@@ -2107,7 +2151,9 @@
       <c r="H25" s="18">
         <v>1</v>
       </c>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
       <c r="J25" s="18">
         <v>1</v>
       </c>
@@ -2257,12 +2303,16 @@
       <c r="H29" s="18">
         <v>1</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="18"/>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1</v>
+      </c>
       <c r="K29" s="20"/>
       <c r="L29" s="21">
         <f t="shared" ref="L29:L49" si="2">SUM(E29:K29)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
@@ -2298,12 +2348,16 @@
       <c r="H30" s="18">
         <v>1</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="18"/>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1</v>
+      </c>
       <c r="K30" s="20"/>
       <c r="L30" s="21">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -2341,12 +2395,16 @@
       <c r="H31" s="18">
         <v>1</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="18"/>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="18">
+        <v>1</v>
+      </c>
       <c r="K31" s="20"/>
       <c r="L31" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -2382,12 +2440,16 @@
       <c r="H32" s="18">
         <v>1</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="18"/>
+      <c r="I32" s="6">
+        <v>1</v>
+      </c>
+      <c r="J32" s="18">
+        <v>1</v>
+      </c>
       <c r="K32" s="20"/>
       <c r="L32" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -2423,12 +2485,16 @@
       <c r="H33" s="18">
         <v>1</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="18"/>
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="18">
+        <v>1</v>
+      </c>
       <c r="K33" s="20"/>
       <c r="L33" s="21">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -2464,12 +2530,16 @@
       <c r="H34" s="18">
         <v>0</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="18"/>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="18">
+        <v>1</v>
+      </c>
       <c r="K34" s="20"/>
       <c r="L34" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -2505,12 +2575,16 @@
       <c r="H35" s="18">
         <v>1</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="18"/>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+      <c r="J35" s="18">
+        <v>1</v>
+      </c>
       <c r="K35" s="20"/>
       <c r="L35" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -2546,12 +2620,16 @@
       <c r="H36" s="18">
         <v>1</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="18"/>
+      <c r="I36" s="6">
+        <v>1</v>
+      </c>
+      <c r="J36" s="18">
+        <v>0</v>
+      </c>
       <c r="K36" s="20"/>
       <c r="L36" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -2587,12 +2665,16 @@
       <c r="H37" s="18">
         <v>1</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="18"/>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="18">
+        <v>1</v>
+      </c>
       <c r="K37" s="20"/>
       <c r="L37" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -2628,12 +2710,16 @@
       <c r="H38" s="18">
         <v>1</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="18"/>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1</v>
+      </c>
       <c r="K38" s="20"/>
       <c r="L38" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -2669,12 +2755,16 @@
       <c r="H39" s="18">
         <v>1</v>
       </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="18"/>
+      <c r="I39" s="6">
+        <v>1</v>
+      </c>
+      <c r="J39" s="18">
+        <v>0</v>
+      </c>
       <c r="K39" s="20"/>
       <c r="L39" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M39" s="22"/>
       <c r="N39" s="22">
@@ -2714,12 +2804,16 @@
       <c r="H40" s="18">
         <v>0</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="18"/>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="18">
+        <v>1</v>
+      </c>
       <c r="K40" s="20"/>
       <c r="L40" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -2755,12 +2849,16 @@
       <c r="H41" s="18">
         <v>1</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="18"/>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1</v>
+      </c>
       <c r="K41" s="20"/>
       <c r="L41" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -2796,12 +2894,16 @@
       <c r="H42" s="18">
         <v>1</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="18"/>
+      <c r="I42" s="6">
+        <v>1</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1</v>
+      </c>
       <c r="K42" s="20"/>
       <c r="L42" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -2837,8 +2939,12 @@
       <c r="H43" s="18">
         <v>0</v>
       </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="18"/>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="18">
+        <v>0</v>
+      </c>
       <c r="K43" s="20"/>
       <c r="L43" s="21">
         <f t="shared" si="2"/>
@@ -2878,12 +2984,16 @@
       <c r="H44" s="18">
         <v>1</v>
       </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="18"/>
+      <c r="I44" s="6">
+        <v>1</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1</v>
+      </c>
       <c r="K44" s="20"/>
       <c r="L44" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -2919,12 +3029,16 @@
       <c r="H45" s="18">
         <v>1</v>
       </c>
-      <c r="I45" s="6"/>
-      <c r="J45" s="18"/>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1</v>
+      </c>
       <c r="K45" s="20"/>
       <c r="L45" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M45" s="22"/>
       <c r="N45" s="22">
@@ -2964,12 +3078,16 @@
       <c r="H46" s="18">
         <v>1</v>
       </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="18"/>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1</v>
+      </c>
       <c r="K46" s="20"/>
       <c r="L46" s="21">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -3005,12 +3123,16 @@
       <c r="H47" s="18">
         <v>1</v>
       </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="18"/>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1</v>
+      </c>
       <c r="K47" s="20"/>
       <c r="L47" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -3047,12 +3169,16 @@
       <c r="H48" s="18">
         <v>1</v>
       </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="18"/>
+      <c r="I48" s="6">
+        <v>1</v>
+      </c>
+      <c r="J48" s="18">
+        <v>1</v>
+      </c>
       <c r="K48" s="20"/>
       <c r="L48" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -3088,12 +3214,16 @@
       <c r="H49" s="18">
         <v>1</v>
       </c>
-      <c r="I49" s="6"/>
-      <c r="J49" s="18"/>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="18">
+        <v>1</v>
+      </c>
       <c r="K49" s="20"/>
       <c r="L49" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -3109,7 +3239,10 @@
       <c r="D50" s="24"/>
       <c r="E50" s="31"/>
       <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
+      <c r="I50" s="35">
+        <f>SUM(I3:I25,I29:I49)</f>
+        <v>22</v>
+      </c>
       <c r="J50" s="28"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -3149,7 +3282,7 @@
         <v>20</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="24"/>
@@ -3167,7 +3300,7 @@
       </c>
       <c r="D54">
         <f>D53-3</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E54" s="31"/>
       <c r="F54" s="26"/>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290CCB1F-D099-4165-A3D4-0122AE6303AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59368F51-146E-4C86-B395-C9DF791E5B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="2445" windowWidth="28800" windowHeight="15435" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
+    <workbookView xWindow="4170" yWindow="2100" windowWidth="23250" windowHeight="12810" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F77252F-DDF1-48FB-B55F-5DF7ACE04987}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,15 +2850,17 @@
         <v>1</v>
       </c>
       <c r="I41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="18">
         <v>1</v>
       </c>
-      <c r="K41" s="20"/>
+      <c r="K41" s="20">
+        <v>1</v>
+      </c>
       <c r="L41" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -3241,7 +3243,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="35">
         <f>SUM(I3:I25,I29:I49)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J50" s="28"/>
       <c r="K50" s="24"/>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominika.jochcova\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59368F51-146E-4C86-B395-C9DF791E5B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2100" windowWidth="23250" windowHeight="12810" xr2:uid="{F8CF846B-F0DB-46D3-87FD-415688FC9930}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -380,8 +379,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,7 +648,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -988,30 +987,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F77252F-DDF1-48FB-B55F-5DF7ACE04987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="14" width="8.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="34.28515625" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="14" width="8.125" customWidth="1"/>
+    <col min="15" max="15" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="18" width="34.25" customWidth="1"/>
+    <col min="20" max="20" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="23.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1051,7 +1050,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="23.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1094,7 +1093,7 @@
       </c>
       <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1130,7 +1129,9 @@
         <f>SUM(E3:K3)</f>
         <v>8</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="22">
+        <v>2</v>
+      </c>
       <c r="N3" s="22"/>
       <c r="O3" s="35"/>
       <c r="P3" s="18" t="str">
@@ -1139,7 +1140,7 @@
       </c>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1175,7 +1176,9 @@
         <f t="shared" ref="L4:L25" si="0">SUM(E4:K4)</f>
         <v>9</v>
       </c>
-      <c r="M4" s="22"/>
+      <c r="M4" s="22">
+        <v>2</v>
+      </c>
       <c r="N4" s="22">
         <v>1</v>
       </c>
@@ -1188,7 +1191,7 @@
       </c>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1224,7 +1227,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M5" s="22"/>
+      <c r="M5" s="22">
+        <v>2</v>
+      </c>
       <c r="N5" s="22"/>
       <c r="O5" s="35" t="s">
         <v>111</v>
@@ -1235,7 +1240,7 @@
       </c>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1271,7 +1276,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M6" s="22"/>
+      <c r="M6" s="22">
+        <v>2</v>
+      </c>
       <c r="N6" s="22"/>
       <c r="O6" s="35" t="s">
         <v>111</v>
@@ -1282,7 +1289,7 @@
       </c>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1318,7 +1325,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M7" s="22"/>
+      <c r="M7" s="22">
+        <v>2</v>
+      </c>
       <c r="N7" s="22">
         <v>1</v>
       </c>
@@ -1331,7 +1340,7 @@
       </c>
       <c r="R7" s="34"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1367,7 +1376,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M8" s="22"/>
+      <c r="M8" s="22">
+        <v>2</v>
+      </c>
       <c r="N8" s="22"/>
       <c r="O8" s="35"/>
       <c r="P8" s="18" t="str">
@@ -1376,7 +1387,7 @@
       </c>
       <c r="R8" s="34"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -1412,7 +1423,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M9" s="22"/>
+      <c r="M9" s="22">
+        <v>2</v>
+      </c>
       <c r="N9" s="22"/>
       <c r="O9" s="35"/>
       <c r="P9" s="18" t="str">
@@ -1421,7 +1434,7 @@
       </c>
       <c r="R9" s="34"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -1457,7 +1470,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M10" s="22"/>
+      <c r="M10" s="22">
+        <v>2</v>
+      </c>
       <c r="N10" s="22"/>
       <c r="O10" s="35"/>
       <c r="P10" s="18" t="str">
@@ -1466,7 +1481,7 @@
       </c>
       <c r="R10" s="34"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -1502,7 +1517,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M11" s="22"/>
+      <c r="M11" s="22">
+        <v>2</v>
+      </c>
       <c r="N11" s="22">
         <v>1</v>
       </c>
@@ -1515,7 +1532,7 @@
       </c>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1551,7 +1568,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="22">
+        <v>2</v>
+      </c>
       <c r="N12" s="22"/>
       <c r="O12" s="35"/>
       <c r="P12" s="18" t="str">
@@ -1560,7 +1579,7 @@
       </c>
       <c r="R12" s="34"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -1605,7 +1624,7 @@
       </c>
       <c r="R13" s="34"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1641,7 +1660,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M14" s="22"/>
+      <c r="M14" s="22">
+        <v>1</v>
+      </c>
       <c r="N14" s="22"/>
       <c r="O14" s="35" t="s">
         <v>111</v>
@@ -1652,7 +1673,7 @@
       </c>
       <c r="R14" s="34"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -1688,7 +1709,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M15" s="22"/>
+      <c r="M15" s="22">
+        <v>2</v>
+      </c>
       <c r="N15" s="22"/>
       <c r="O15" s="35"/>
       <c r="P15" s="18" t="str">
@@ -1697,7 +1720,7 @@
       </c>
       <c r="R15" s="34"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -1733,7 +1756,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M16" s="22"/>
+      <c r="M16" s="22">
+        <v>2</v>
+      </c>
       <c r="N16" s="22"/>
       <c r="O16" s="35"/>
       <c r="P16" s="18" t="str">
@@ -1742,7 +1767,7 @@
       </c>
       <c r="R16" s="34"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -1787,7 +1812,7 @@
       </c>
       <c r="R17" s="34"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -1823,7 +1848,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M18" s="22"/>
+      <c r="M18" s="22">
+        <v>2</v>
+      </c>
       <c r="N18" s="22">
         <v>1</v>
       </c>
@@ -1836,7 +1863,7 @@
       </c>
       <c r="R18" s="34"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -1872,7 +1899,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M19" s="22"/>
+      <c r="M19" s="22">
+        <v>2</v>
+      </c>
       <c r="N19" s="22"/>
       <c r="O19" s="35" t="s">
         <v>111</v>
@@ -1885,7 +1914,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -1921,7 +1950,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M20" s="22"/>
+      <c r="M20" s="22">
+        <v>2</v>
+      </c>
       <c r="N20" s="22">
         <v>1</v>
       </c>
@@ -1934,7 +1965,7 @@
       </c>
       <c r="R20" s="34"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="16">
         <v>19</v>
       </c>
@@ -1970,7 +2001,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M21" s="22"/>
+      <c r="M21" s="22">
+        <v>2</v>
+      </c>
       <c r="N21" s="22">
         <v>1</v>
       </c>
@@ -1983,7 +2016,7 @@
       </c>
       <c r="R21" s="34"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -2028,7 +2061,7 @@
       </c>
       <c r="R22" s="34"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="16">
         <v>21</v>
       </c>
@@ -2064,7 +2097,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M23" s="22"/>
+      <c r="M23" s="22">
+        <v>2</v>
+      </c>
       <c r="N23" s="22">
         <v>1</v>
       </c>
@@ -2077,7 +2112,7 @@
       </c>
       <c r="R23" s="34"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -2113,7 +2148,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M24" s="22"/>
+      <c r="M24" s="22">
+        <v>2</v>
+      </c>
       <c r="N24" s="22">
         <v>1</v>
       </c>
@@ -2126,7 +2163,7 @@
       </c>
       <c r="R24" s="34"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -2162,7 +2199,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M25" s="22"/>
+      <c r="M25" s="22">
+        <v>2</v>
+      </c>
       <c r="N25" s="22"/>
       <c r="O25" s="35"/>
       <c r="P25" s="18" t="str">
@@ -2171,7 +2210,7 @@
       </c>
       <c r="R25" s="34"/>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -2197,7 +2236,7 @@
       </c>
       <c r="R26" s="34"/>
     </row>
-    <row r="27" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="23.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -2235,7 +2274,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="23.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>70</v>
@@ -2278,7 +2317,7 @@
       </c>
       <c r="R28" s="34"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -2314,7 +2353,9 @@
         <f t="shared" ref="L29:L49" si="2">SUM(E29:K29)</f>
         <v>7</v>
       </c>
-      <c r="M29" s="22"/>
+      <c r="M29" s="22">
+        <v>2</v>
+      </c>
       <c r="N29" s="22"/>
       <c r="O29" s="35"/>
       <c r="P29" s="18" t="str">
@@ -2323,7 +2364,7 @@
       </c>
       <c r="R29" s="34"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="16">
         <v>2</v>
       </c>
@@ -2370,7 +2411,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="16">
         <v>3</v>
       </c>
@@ -2406,7 +2447,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M31" s="22"/>
+      <c r="M31" s="22">
+        <v>2</v>
+      </c>
       <c r="N31" s="22"/>
       <c r="O31" s="35"/>
       <c r="P31" s="18" t="str">
@@ -2415,7 +2458,7 @@
       </c>
       <c r="R31" s="34"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="16">
         <v>4</v>
       </c>
@@ -2451,7 +2494,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M32" s="22"/>
+      <c r="M32" s="22">
+        <v>2</v>
+      </c>
       <c r="N32" s="22"/>
       <c r="O32" s="35"/>
       <c r="P32" s="18" t="str">
@@ -2460,7 +2505,7 @@
       </c>
       <c r="R32" s="34"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="16">
         <v>5</v>
       </c>
@@ -2496,7 +2541,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M33" s="22"/>
+      <c r="M33" s="22">
+        <v>2</v>
+      </c>
       <c r="N33" s="22"/>
       <c r="O33" s="35"/>
       <c r="P33" s="18" t="str">
@@ -2505,7 +2552,7 @@
       </c>
       <c r="R33" s="34"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="16">
         <v>6</v>
       </c>
@@ -2541,7 +2588,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M34" s="22"/>
+      <c r="M34" s="22">
+        <v>2</v>
+      </c>
       <c r="N34" s="22"/>
       <c r="O34" s="35"/>
       <c r="P34" s="18" t="str">
@@ -2550,7 +2599,7 @@
       </c>
       <c r="R34" s="34"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="16">
         <v>7</v>
       </c>
@@ -2586,7 +2635,9 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="M35" s="22"/>
+      <c r="M35" s="22">
+        <v>2</v>
+      </c>
       <c r="N35" s="22"/>
       <c r="O35" s="35"/>
       <c r="P35" s="18" t="str">
@@ -2595,7 +2646,7 @@
       </c>
       <c r="R35" s="34"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="16">
         <v>8</v>
       </c>
@@ -2631,7 +2682,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M36" s="22"/>
+      <c r="M36" s="22">
+        <v>2</v>
+      </c>
       <c r="N36" s="22"/>
       <c r="O36" s="35"/>
       <c r="P36" s="18" t="str">
@@ -2640,7 +2693,7 @@
       </c>
       <c r="R36" s="34"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="16">
         <v>9</v>
       </c>
@@ -2676,7 +2729,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M37" s="22"/>
+      <c r="M37" s="22">
+        <v>2</v>
+      </c>
       <c r="N37" s="22"/>
       <c r="O37" s="35"/>
       <c r="P37" s="18" t="str">
@@ -2685,7 +2740,7 @@
       </c>
       <c r="R37" s="34"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="16">
         <v>10</v>
       </c>
@@ -2721,7 +2776,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M38" s="22"/>
+      <c r="M38" s="22">
+        <v>2</v>
+      </c>
       <c r="N38" s="22"/>
       <c r="O38" s="35"/>
       <c r="P38" s="18" t="str">
@@ -2730,7 +2787,7 @@
       </c>
       <c r="R38" s="34"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="16">
         <v>11</v>
       </c>
@@ -2766,7 +2823,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M39" s="22"/>
+      <c r="M39" s="22">
+        <v>2</v>
+      </c>
       <c r="N39" s="22">
         <v>1</v>
       </c>
@@ -2779,7 +2838,7 @@
       </c>
       <c r="R39" s="34"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="16">
         <v>12</v>
       </c>
@@ -2815,7 +2874,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M40" s="22"/>
+      <c r="M40" s="22">
+        <v>2</v>
+      </c>
       <c r="N40" s="22"/>
       <c r="O40" s="35"/>
       <c r="P40" s="18" t="str">
@@ -2824,7 +2885,7 @@
       </c>
       <c r="R40" s="34"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="16">
         <v>13</v>
       </c>
@@ -2862,7 +2923,9 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M41" s="22"/>
+      <c r="M41" s="22">
+        <v>2</v>
+      </c>
       <c r="N41" s="22"/>
       <c r="O41" s="35"/>
       <c r="P41" s="18" t="str">
@@ -2871,7 +2934,7 @@
       </c>
       <c r="R41" s="34"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="16">
         <v>14</v>
       </c>
@@ -2907,7 +2970,9 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M42" s="22"/>
+      <c r="M42" s="22">
+        <v>2</v>
+      </c>
       <c r="N42" s="22"/>
       <c r="O42" s="35"/>
       <c r="P42" s="18" t="str">
@@ -2916,7 +2981,7 @@
       </c>
       <c r="R42" s="34"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="16">
         <v>15</v>
       </c>
@@ -2952,7 +3017,9 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M43" s="22"/>
+      <c r="M43" s="22">
+        <v>1</v>
+      </c>
       <c r="N43" s="22"/>
       <c r="O43" s="35"/>
       <c r="P43" s="18" t="str">
@@ -2961,7 +3028,7 @@
       </c>
       <c r="R43" s="34"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="16">
         <v>16</v>
       </c>
@@ -2997,7 +3064,9 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M44" s="22"/>
+      <c r="M44" s="22">
+        <v>2</v>
+      </c>
       <c r="N44" s="22"/>
       <c r="O44" s="35"/>
       <c r="P44" s="18" t="str">
@@ -3006,7 +3075,7 @@
       </c>
       <c r="R44" s="34"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="16">
         <v>17</v>
       </c>
@@ -3042,7 +3111,9 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M45" s="22"/>
+      <c r="M45" s="22">
+        <v>2</v>
+      </c>
       <c r="N45" s="22">
         <v>1</v>
       </c>
@@ -3055,7 +3126,7 @@
       </c>
       <c r="R45" s="34"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="16">
         <v>18</v>
       </c>
@@ -3091,7 +3162,9 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M46" s="22"/>
+      <c r="M46" s="22">
+        <v>2</v>
+      </c>
       <c r="N46" s="22"/>
       <c r="O46" s="35"/>
       <c r="P46" s="18" t="str">
@@ -3100,7 +3173,7 @@
       </c>
       <c r="R46" s="34"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="16">
         <v>19</v>
       </c>
@@ -3136,7 +3209,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M47" s="22"/>
+      <c r="M47" s="22">
+        <v>2</v>
+      </c>
       <c r="N47" s="22"/>
       <c r="O47" s="35"/>
       <c r="P47" s="18" t="str">
@@ -3146,7 +3221,7 @@
       <c r="Q47" s="14"/>
       <c r="R47" s="34"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="16">
         <v>20</v>
       </c>
@@ -3182,7 +3257,9 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="M48" s="22"/>
+      <c r="M48" s="22">
+        <v>2</v>
+      </c>
       <c r="N48" s="22"/>
       <c r="O48" s="35"/>
       <c r="P48" s="18" t="str">
@@ -3191,7 +3268,7 @@
       </c>
       <c r="R48" s="34"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="16">
         <v>21</v>
       </c>
@@ -3236,7 +3313,7 @@
       </c>
       <c r="R49" s="34"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="30"/>
       <c r="D50" s="24"/>
       <c r="E50" s="31"/>
@@ -3254,7 +3331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="30"/>
       <c r="D51" s="24"/>
       <c r="E51" s="31"/>
@@ -3266,7 +3343,7 @@
       <c r="L51" s="24"/>
       <c r="M51" s="32"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="23"/>
       <c r="D52" s="24"/>
       <c r="E52" s="31"/>
@@ -3278,7 +3355,7 @@
       <c r="L52" s="24"/>
       <c r="M52" s="32"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="23"/>
       <c r="C53" s="15" t="s">
         <v>20</v>
@@ -3295,7 +3372,7 @@
       <c r="L53" s="24"/>
       <c r="M53" s="32"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="23"/>
       <c r="C54" s="15" t="s">
         <v>24</v>
@@ -3313,7 +3390,7 @@
       <c r="L54" s="24"/>
       <c r="M54" s="32"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" s="23"/>
       <c r="D55" s="24"/>
       <c r="E55" s="31"/>
@@ -3326,7 +3403,7 @@
       <c r="L55" s="24"/>
       <c r="M55" s="32"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="23"/>
       <c r="D56" s="24"/>
       <c r="E56" s="31"/>
@@ -3339,7 +3416,7 @@
       <c r="L56" s="24"/>
       <c r="M56" s="32"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="23"/>
       <c r="D57" s="24"/>
       <c r="E57" s="31"/>
@@ -3352,7 +3429,7 @@
       <c r="L57" s="24"/>
       <c r="M57" s="32"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="23"/>
       <c r="D58" s="24"/>
       <c r="E58" s="31"/>
@@ -3365,7 +3442,7 @@
       <c r="L58" s="24"/>
       <c r="M58" s="32"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="23"/>
       <c r="D59" s="24"/>
       <c r="E59" s="31"/>
@@ -3378,7 +3455,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="32"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" s="23"/>
       <c r="D60" s="24"/>
       <c r="E60" s="31"/>
@@ -3390,7 +3467,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="32"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="23"/>
       <c r="D61" s="24"/>
       <c r="E61" s="31"/>
@@ -3403,7 +3480,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="32"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" s="23"/>
       <c r="D62" s="24"/>
       <c r="E62" s="31"/>
@@ -3416,7 +3493,7 @@
       <c r="L62" s="24"/>
       <c r="M62" s="32"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="23"/>
       <c r="D63" s="24"/>
       <c r="E63" s="31"/>
@@ -3429,7 +3506,7 @@
       <c r="L63" s="24"/>
       <c r="M63" s="32"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="23"/>
       <c r="D64" s="24"/>
       <c r="E64" s="31"/>
@@ -3442,7 +3519,7 @@
       <c r="L64" s="24"/>
       <c r="M64" s="32"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="23"/>
       <c r="D65" s="24"/>
       <c r="E65" s="31"/>
@@ -3454,7 +3531,7 @@
       <c r="L65" s="24"/>
       <c r="M65" s="32"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="23"/>
       <c r="D66" s="24"/>
       <c r="E66" s="31"/>
@@ -3467,7 +3544,7 @@
       <c r="L66" s="24"/>
       <c r="M66" s="32"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="23"/>
       <c r="D67" s="24"/>
       <c r="E67" s="31"/>
@@ -3479,7 +3556,7 @@
       <c r="L67" s="24"/>
       <c r="M67" s="32"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="23"/>
       <c r="D68" s="24"/>
       <c r="E68" s="31"/>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominika.jochcova\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B22333-DCEA-4B8F-92DB-B0E75BD36953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300"/>
+    <workbookView xWindow="3300" yWindow="3090" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -374,13 +375,19 @@
   </si>
   <si>
     <t>Zápočet</t>
+  </si>
+  <si>
+    <t>Zapsán v KOSu</t>
+  </si>
+  <si>
+    <t>2, 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,9 +653,18 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -987,30 +1003,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="7.875" customWidth="1"/>
-    <col min="5" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="14" width="8.125" customWidth="1"/>
-    <col min="15" max="15" width="16.125" customWidth="1"/>
-    <col min="16" max="16" width="14.125" customWidth="1"/>
-    <col min="17" max="17" width="8.25" customWidth="1"/>
-    <col min="18" max="18" width="34.25" customWidth="1"/>
-    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="14" width="8.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="34.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25">
+    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1046,11 +1063,11 @@
       <c r="O1" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="23.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1091,9 +1108,12 @@
       <c r="P2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="Q2" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1138,9 +1158,10 @@
         <f>IF(AND(L3&gt;=D54, M3=2, N3=2), "ANO", "NE")</f>
         <v>NE</v>
       </c>
-      <c r="R3" s="34"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="Q3" s="40"/>
+      <c r="S3" s="34"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1189,9 +1210,10 @@
         <f t="shared" ref="P4:P49" si="1">IF(AND(L4&gt;=D55, M4=2, N4=2), "ANO", "NE")</f>
         <v>NE</v>
       </c>
-      <c r="R4" s="34"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="Q4" s="40"/>
+      <c r="S4" s="34"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1230,7 +1252,9 @@
       <c r="M5" s="22">
         <v>2</v>
       </c>
-      <c r="N5" s="22"/>
+      <c r="N5" s="22">
+        <v>1</v>
+      </c>
       <c r="O5" s="35" t="s">
         <v>111</v>
       </c>
@@ -1238,9 +1262,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R5" s="34"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="Q5" s="40"/>
+      <c r="S5" s="34"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1279,7 +1304,9 @@
       <c r="M6" s="22">
         <v>2</v>
       </c>
-      <c r="N6" s="22"/>
+      <c r="N6" s="22">
+        <v>1</v>
+      </c>
       <c r="O6" s="35" t="s">
         <v>111</v>
       </c>
@@ -1287,9 +1314,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R6" s="34"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="Q6" s="40"/>
+      <c r="S6" s="34"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1338,9 +1366,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R7" s="34"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="Q7" s="40"/>
+      <c r="S7" s="34"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1385,9 +1414,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R8" s="34"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="Q8" s="40"/>
+      <c r="S8" s="34"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -1432,9 +1462,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R9" s="34"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="Q9" s="40"/>
+      <c r="S9" s="34"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -1479,9 +1510,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R10" s="34"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="Q10" s="40"/>
+      <c r="S10" s="34"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -1530,9 +1562,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R11" s="34"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="Q11" s="40"/>
+      <c r="S11" s="34"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1577,9 +1610,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R12" s="34"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="Q12" s="40"/>
+      <c r="S12" s="34"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -1622,9 +1656,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R13" s="34"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="Q13" s="40"/>
+      <c r="S13" s="34"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1671,9 +1706,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R14" s="34"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="Q14" s="40"/>
+      <c r="S14" s="34"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -1718,9 +1754,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R15" s="34"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="Q15" s="40"/>
+      <c r="S15" s="34"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -1765,9 +1802,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R16" s="34"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="Q16" s="40"/>
+      <c r="S16" s="34"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -1810,9 +1848,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R17" s="34"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="Q17" s="40"/>
+      <c r="S17" s="34"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -1861,9 +1900,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R18" s="34"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="Q18" s="40"/>
+      <c r="S18" s="34"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -1910,11 +1950,12 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R19" s="34" t="s">
+      <c r="Q19" s="40"/>
+      <c r="S19" s="34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -1963,9 +2004,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R20" s="34"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="Q20" s="40"/>
+      <c r="S20" s="34"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>19</v>
       </c>
@@ -2014,9 +2056,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R21" s="34"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="Q21" s="40"/>
+      <c r="S21" s="34"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -2059,9 +2102,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R22" s="34"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="Q22" s="40"/>
+      <c r="S22" s="34"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>21</v>
       </c>
@@ -2101,18 +2145,19 @@
         <v>2</v>
       </c>
       <c r="N23" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P23" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
-      </c>
-      <c r="R23" s="34"/>
-    </row>
-    <row r="24" spans="1:18">
+        <v>ANO</v>
+      </c>
+      <c r="Q23" s="40"/>
+      <c r="S23" s="34"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -2161,9 +2206,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R24" s="34"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="Q24" s="40"/>
+      <c r="S24" s="34"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -2189,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="18">
         <v>1</v>
@@ -2197,7 +2243,7 @@
       <c r="K25" s="20"/>
       <c r="L25" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M25" s="22">
         <v>2</v>
@@ -2208,9 +2254,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R25" s="34"/>
-    </row>
-    <row r="26" spans="1:18" hidden="1">
+      <c r="Q25" s="40"/>
+      <c r="S25" s="34"/>
+    </row>
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -2234,9 +2281,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R26" s="34"/>
-    </row>
-    <row r="27" spans="1:18" ht="23.25">
+      <c r="Q26" s="40"/>
+      <c r="S26" s="34"/>
+    </row>
+    <row r="27" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -2270,11 +2318,12 @@
       </c>
       <c r="N27" s="9"/>
       <c r="P27" s="38"/>
-      <c r="R27" t="s">
+      <c r="Q27" s="40"/>
+      <c r="S27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="23.25">
+    <row r="28" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>70</v>
@@ -2315,9 +2364,10 @@
       <c r="P28" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="R28" s="34"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="Q28" s="39"/>
+      <c r="S28" s="34"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -2362,9 +2412,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R29" s="34"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="Q29" s="40"/>
+      <c r="S29" s="34"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>2</v>
       </c>
@@ -2407,11 +2458,12 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R30" s="34" t="s">
+      <c r="Q30" s="40"/>
+      <c r="S30" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>3</v>
       </c>
@@ -2456,9 +2508,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R31" s="34"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="Q31" s="40"/>
+      <c r="S31" s="34"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>4</v>
       </c>
@@ -2503,9 +2556,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R32" s="34"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="Q32" s="40"/>
+      <c r="S32" s="34"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>5</v>
       </c>
@@ -2550,9 +2604,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R33" s="34"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="Q33" s="40"/>
+      <c r="S33" s="34"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>6</v>
       </c>
@@ -2597,9 +2652,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R34" s="34"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="Q34" s="40"/>
+      <c r="S34" s="34"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>7</v>
       </c>
@@ -2644,9 +2700,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R35" s="34"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="Q35" s="40"/>
+      <c r="S35" s="34"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>8</v>
       </c>
@@ -2663,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="F36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="18">
         <v>1</v>
@@ -2680,7 +2737,7 @@
       <c r="K36" s="20"/>
       <c r="L36" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M36" s="22">
         <v>2</v>
@@ -2691,9 +2748,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R36" s="34"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="Q36" s="40"/>
+      <c r="S36" s="34"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>9</v>
       </c>
@@ -2738,9 +2796,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R37" s="34"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="Q37" s="40"/>
+      <c r="S37" s="34"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>10</v>
       </c>
@@ -2785,9 +2844,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R38" s="34"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="Q38" s="40"/>
+      <c r="S38" s="34"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>11</v>
       </c>
@@ -2836,9 +2896,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R39" s="34"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="Q39" s="40"/>
+      <c r="S39" s="34"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>12</v>
       </c>
@@ -2883,9 +2944,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R40" s="34"/>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="Q40" s="40"/>
+      <c r="S40" s="34"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>13</v>
       </c>
@@ -2932,9 +2994,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R41" s="34"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="Q41" s="40"/>
+      <c r="S41" s="34"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>14</v>
       </c>
@@ -2979,9 +3042,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R42" s="34"/>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="Q42" s="40"/>
+      <c r="S42" s="34"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>15</v>
       </c>
@@ -3026,9 +3090,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R43" s="34"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="Q43" s="40"/>
+      <c r="S43" s="34"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>16</v>
       </c>
@@ -3073,9 +3138,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R44" s="34"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="Q44" s="40"/>
+      <c r="S44" s="34"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>17</v>
       </c>
@@ -3124,9 +3190,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R45" s="34"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="Q45" s="40"/>
+      <c r="S45" s="34"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>18</v>
       </c>
@@ -3152,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="18">
         <v>1</v>
@@ -3160,7 +3227,7 @@
       <c r="K46" s="20"/>
       <c r="L46" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M46" s="22">
         <v>2</v>
@@ -3171,9 +3238,10 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R46" s="34"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="Q46" s="40"/>
+      <c r="S46" s="34"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>19</v>
       </c>
@@ -3218,10 +3286,11 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="34"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="Q47" s="40"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="34"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>20</v>
       </c>
@@ -3260,15 +3329,20 @@
       <c r="M48" s="22">
         <v>2</v>
       </c>
-      <c r="N48" s="22"/>
-      <c r="O48" s="35"/>
+      <c r="N48" s="22">
+        <v>1</v>
+      </c>
+      <c r="O48" s="35" t="s">
+        <v>111</v>
+      </c>
       <c r="P48" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R48" s="34"/>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="Q48" s="40"/>
+      <c r="S48" s="34"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>21</v>
       </c>
@@ -3311,16 +3385,17 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="R49" s="34"/>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="Q49" s="40"/>
+      <c r="S49" s="34"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="D50" s="24"/>
       <c r="E50" s="31"/>
       <c r="H50" s="14"/>
       <c r="I50" s="35">
         <f>SUM(I3:I25,I29:I49)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J50" s="28"/>
       <c r="K50" s="24"/>
@@ -3328,10 +3403,10 @@
       <c r="M50" s="32"/>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
       <c r="D51" s="24"/>
       <c r="E51" s="31"/>
@@ -3343,7 +3418,7 @@
       <c r="L51" s="24"/>
       <c r="M51" s="32"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="D52" s="24"/>
       <c r="E52" s="31"/>
@@ -3355,7 +3430,7 @@
       <c r="L52" s="24"/>
       <c r="M52" s="32"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="C53" s="15" t="s">
         <v>20</v>
@@ -3372,7 +3447,7 @@
       <c r="L53" s="24"/>
       <c r="M53" s="32"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="C54" s="15" t="s">
         <v>24</v>
@@ -3390,7 +3465,7 @@
       <c r="L54" s="24"/>
       <c r="M54" s="32"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="D55" s="24"/>
       <c r="E55" s="31"/>
@@ -3403,7 +3478,7 @@
       <c r="L55" s="24"/>
       <c r="M55" s="32"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="D56" s="24"/>
       <c r="E56" s="31"/>
@@ -3416,7 +3491,7 @@
       <c r="L56" s="24"/>
       <c r="M56" s="32"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="D57" s="24"/>
       <c r="E57" s="31"/>
@@ -3429,7 +3504,7 @@
       <c r="L57" s="24"/>
       <c r="M57" s="32"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="D58" s="24"/>
       <c r="E58" s="31"/>
@@ -3442,7 +3517,7 @@
       <c r="L58" s="24"/>
       <c r="M58" s="32"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="D59" s="24"/>
       <c r="E59" s="31"/>
@@ -3455,7 +3530,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="32"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="D60" s="24"/>
       <c r="E60" s="31"/>
@@ -3467,7 +3542,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="32"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="D61" s="24"/>
       <c r="E61" s="31"/>
@@ -3480,7 +3555,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="32"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="D62" s="24"/>
       <c r="E62" s="31"/>
@@ -3493,7 +3568,7 @@
       <c r="L62" s="24"/>
       <c r="M62" s="32"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="D63" s="24"/>
       <c r="E63" s="31"/>
@@ -3506,7 +3581,7 @@
       <c r="L63" s="24"/>
       <c r="M63" s="32"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="D64" s="24"/>
       <c r="E64" s="31"/>
@@ -3519,7 +3594,7 @@
       <c r="L64" s="24"/>
       <c r="M64" s="32"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="D65" s="24"/>
       <c r="E65" s="31"/>
@@ -3531,7 +3606,7 @@
       <c r="L65" s="24"/>
       <c r="M65" s="32"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="D66" s="24"/>
       <c r="E66" s="31"/>
@@ -3544,7 +3619,7 @@
       <c r="L66" s="24"/>
       <c r="M66" s="32"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="D67" s="24"/>
       <c r="E67" s="31"/>
@@ -3556,7 +3631,7 @@
       <c r="L67" s="24"/>
       <c r="M67" s="32"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="D68" s="24"/>
       <c r="E68" s="31"/>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B22333-DCEA-4B8F-92DB-B0E75BD36953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D84FE3-42C1-4093-9B73-99306371C4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3090" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7485" yWindow="2760" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="118">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -381,6 +381,15 @@
   </si>
   <si>
     <t>2, 3</t>
+  </si>
+  <si>
+    <t>2, 4</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P5" s="18" t="str">
         <f t="shared" si="1"/>
@@ -1360,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P7" s="18" t="str">
         <f t="shared" si="1"/>
@@ -1894,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P18" s="18" t="str">
         <f t="shared" si="1"/>
@@ -1998,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P20" s="18" t="str">
         <f t="shared" si="1"/>
@@ -2047,16 +2056,18 @@
         <v>2</v>
       </c>
       <c r="N21" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P21" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
-      </c>
-      <c r="Q21" s="40"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q21" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="S21" s="34"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2154,7 +2165,9 @@
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
-      <c r="Q23" s="40"/>
+      <c r="Q23" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="S23" s="34"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -2200,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P24" s="18" t="str">
         <f t="shared" si="1"/>
@@ -2887,16 +2900,18 @@
         <v>2</v>
       </c>
       <c r="N39" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P39" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
-      </c>
-      <c r="Q39" s="40"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q39" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="S39" s="34"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -3184,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P45" s="18" t="str">
         <f t="shared" si="1"/>
@@ -3333,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P48" s="18" t="str">
         <f t="shared" si="1"/>
@@ -3403,7 +3418,7 @@
       <c r="M50" s="32"/>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D84FE3-42C1-4093-9B73-99306371C4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6706D0A3-72FD-40B9-938C-EFF453042B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="2760" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="118">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,16 +1900,18 @@
         <v>2</v>
       </c>
       <c r="N18" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" s="35" t="s">
         <v>115</v>
       </c>
       <c r="P18" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
-      </c>
-      <c r="Q18" s="40"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q18" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="S18" s="34"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2004,16 +2006,18 @@
         <v>2</v>
       </c>
       <c r="N20" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" s="35" t="s">
         <v>114</v>
       </c>
       <c r="P20" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
-      </c>
-      <c r="Q20" s="40"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q20" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="S20" s="34"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -3418,7 +3422,7 @@
       <c r="M50" s="32"/>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6706D0A3-72FD-40B9-938C-EFF453042B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D2A0B3-7CDA-483C-B462-8589EDEB43A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,10 +1891,12 @@
       <c r="J18" s="18">
         <v>1</v>
       </c>
-      <c r="K18" s="20"/>
+      <c r="K18" s="20">
+        <v>1</v>
+      </c>
       <c r="L18" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M18" s="22">
         <v>2</v>
@@ -1997,10 +1999,12 @@
       <c r="J20" s="18">
         <v>1</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20">
+        <v>1</v>
+      </c>
       <c r="L20" s="21">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M20" s="22">
         <v>2</v>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D2A0B3-7CDA-483C-B462-8589EDEB43A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A30FA-A062-4A0F-ABF2-9C1DB77158B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,13 +662,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1016,7 +1010,7 @@
   <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1111,7 @@
       <c r="P2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="39" t="s">
         <v>113</v>
       </c>
       <c r="R2" s="14"/>
@@ -1167,7 +1161,7 @@
         <f>IF(AND(L3&gt;=D54, M3=2, N3=2), "ANO", "NE")</f>
         <v>NE</v>
       </c>
-      <c r="Q3" s="40"/>
+      <c r="Q3" s="35"/>
       <c r="S3" s="34"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1219,7 +1213,7 @@
         <f t="shared" ref="P4:P49" si="1">IF(AND(L4&gt;=D55, M4=2, N4=2), "ANO", "NE")</f>
         <v>NE</v>
       </c>
-      <c r="Q4" s="40"/>
+      <c r="Q4" s="35"/>
       <c r="S4" s="34"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1271,7 +1265,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q5" s="40"/>
+      <c r="Q5" s="35"/>
       <c r="S5" s="34"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1323,7 +1317,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q6" s="40"/>
+      <c r="Q6" s="35"/>
       <c r="S6" s="34"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1375,7 +1369,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q7" s="40"/>
+      <c r="Q7" s="35"/>
       <c r="S7" s="34"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1423,7 +1417,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q8" s="40"/>
+      <c r="Q8" s="35"/>
       <c r="S8" s="34"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1471,7 +1465,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q9" s="40"/>
+      <c r="Q9" s="35"/>
       <c r="S9" s="34"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1519,7 +1513,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q10" s="40"/>
+      <c r="Q10" s="35"/>
       <c r="S10" s="34"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1571,7 +1565,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q11" s="40"/>
+      <c r="Q11" s="35"/>
       <c r="S11" s="34"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1619,7 +1613,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q12" s="40"/>
+      <c r="Q12" s="35"/>
       <c r="S12" s="34"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1665,7 +1659,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q13" s="40"/>
+      <c r="Q13" s="35"/>
       <c r="S13" s="34"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1715,7 +1709,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q14" s="40"/>
+      <c r="Q14" s="35"/>
       <c r="S14" s="34"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1763,7 +1757,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q15" s="40"/>
+      <c r="Q15" s="35"/>
       <c r="S15" s="34"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1811,7 +1805,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q16" s="40"/>
+      <c r="Q16" s="35"/>
       <c r="S16" s="34"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1857,7 +1851,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q17" s="40"/>
+      <c r="Q17" s="35"/>
       <c r="S17" s="34"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1911,7 +1905,7 @@
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
-      <c r="Q18" s="40" t="s">
+      <c r="Q18" s="35" t="s">
         <v>117</v>
       </c>
       <c r="S18" s="34"/>
@@ -1963,7 +1957,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q19" s="40"/>
+      <c r="Q19" s="35"/>
       <c r="S19" s="34" t="s">
         <v>107</v>
       </c>
@@ -2019,7 +2013,7 @@
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
-      <c r="Q20" s="40" t="s">
+      <c r="Q20" s="35" t="s">
         <v>117</v>
       </c>
       <c r="S20" s="34"/>
@@ -2073,7 +2067,7 @@
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
-      <c r="Q21" s="40" t="s">
+      <c r="Q21" s="35" t="s">
         <v>117</v>
       </c>
       <c r="S21" s="34"/>
@@ -2121,7 +2115,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q22" s="40"/>
+      <c r="Q22" s="35"/>
       <c r="S22" s="34"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -2173,7 +2167,7 @@
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
-      <c r="Q23" s="40" t="s">
+      <c r="Q23" s="35" t="s">
         <v>117</v>
       </c>
       <c r="S23" s="34"/>
@@ -2227,7 +2221,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q24" s="40"/>
+      <c r="Q24" s="35"/>
       <c r="S24" s="34"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -2261,10 +2255,12 @@
       <c r="J25" s="18">
         <v>1</v>
       </c>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20">
+        <v>1</v>
+      </c>
       <c r="L25" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M25" s="22">
         <v>2</v>
@@ -2275,7 +2271,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q25" s="40"/>
+      <c r="Q25" s="35"/>
       <c r="S25" s="34"/>
     </row>
     <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -2302,7 +2298,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q26" s="40"/>
+      <c r="Q26" s="35"/>
       <c r="S26" s="34"/>
     </row>
     <row r="27" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
@@ -2339,7 +2335,7 @@
       </c>
       <c r="N27" s="9"/>
       <c r="P27" s="38"/>
-      <c r="Q27" s="40"/>
+      <c r="Q27" s="35"/>
       <c r="S27" t="s">
         <v>106</v>
       </c>
@@ -2385,7 +2381,7 @@
       <c r="P28" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Q28" s="39"/>
+      <c r="Q28" s="14"/>
       <c r="S28" s="34"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -2414,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="18">
         <v>1</v>
@@ -2422,7 +2418,7 @@
       <c r="K29" s="20"/>
       <c r="L29" s="21">
         <f t="shared" ref="L29:L49" si="2">SUM(E29:K29)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M29" s="22">
         <v>2</v>
@@ -2433,7 +2429,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q29" s="40"/>
+      <c r="Q29" s="35"/>
       <c r="S29" s="34"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -2462,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="18">
         <v>1</v>
@@ -2470,7 +2466,7 @@
       <c r="K30" s="20"/>
       <c r="L30" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -2479,7 +2475,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q30" s="40"/>
+      <c r="Q30" s="35"/>
       <c r="S30" s="34" t="s">
         <v>108</v>
       </c>
@@ -2529,7 +2525,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q31" s="40"/>
+      <c r="Q31" s="35"/>
       <c r="S31" s="34"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -2577,7 +2573,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q32" s="40"/>
+      <c r="Q32" s="35"/>
       <c r="S32" s="34"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -2625,7 +2621,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q33" s="40"/>
+      <c r="Q33" s="35"/>
       <c r="S33" s="34"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -2673,7 +2669,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q34" s="40"/>
+      <c r="Q34" s="35"/>
       <c r="S34" s="34"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -2721,7 +2717,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q35" s="40"/>
+      <c r="Q35" s="35"/>
       <c r="S35" s="34"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -2769,7 +2765,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q36" s="40"/>
+      <c r="Q36" s="35"/>
       <c r="S36" s="34"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -2817,7 +2813,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q37" s="40"/>
+      <c r="Q37" s="35"/>
       <c r="S37" s="34"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -2846,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="18">
         <v>1</v>
@@ -2854,7 +2850,7 @@
       <c r="K38" s="20"/>
       <c r="L38" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M38" s="22">
         <v>2</v>
@@ -2865,7 +2861,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q38" s="40"/>
+      <c r="Q38" s="35"/>
       <c r="S38" s="34"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -2917,7 +2913,7 @@
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
-      <c r="Q39" s="40" t="s">
+      <c r="Q39" s="35" t="s">
         <v>117</v>
       </c>
       <c r="S39" s="34"/>
@@ -2967,7 +2963,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q40" s="40"/>
+      <c r="Q40" s="35"/>
       <c r="S40" s="34"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -3017,7 +3013,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q41" s="40"/>
+      <c r="Q41" s="35"/>
       <c r="S41" s="34"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -3065,7 +3061,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q42" s="40"/>
+      <c r="Q42" s="35"/>
       <c r="S42" s="34"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -3113,7 +3109,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q43" s="40"/>
+      <c r="Q43" s="35"/>
       <c r="S43" s="34"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -3161,7 +3157,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q44" s="40"/>
+      <c r="Q44" s="35"/>
       <c r="S44" s="34"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -3213,7 +3209,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q45" s="40"/>
+      <c r="Q45" s="35"/>
       <c r="S45" s="34"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -3261,7 +3257,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q46" s="40"/>
+      <c r="Q46" s="35"/>
       <c r="S46" s="34"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -3309,7 +3305,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q47" s="40"/>
+      <c r="Q47" s="35"/>
       <c r="R47" s="14"/>
       <c r="S47" s="34"/>
     </row>
@@ -3362,7 +3358,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q48" s="40"/>
+      <c r="Q48" s="35"/>
       <c r="S48" s="34"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -3408,7 +3404,7 @@
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
-      <c r="Q49" s="40"/>
+      <c r="Q49" s="35"/>
       <c r="S49" s="34"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -3418,12 +3414,15 @@
       <c r="H50" s="14"/>
       <c r="I50" s="35">
         <f>SUM(I3:I25,I29:I49)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J50" s="28"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
-      <c r="M50" s="32"/>
+      <c r="M50" s="37">
+        <f>SUM(M29:M49,M3:M25)</f>
+        <v>76</v>
+      </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
         <v>18</v>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A30FA-A062-4A0F-ABF2-9C1DB77158B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A1AFE6-0461-405E-BF26-DA4C094129BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="117">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>17.5.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ÚKOLY:</t>
   </si>
   <si>
     <t>pátek 10:00, T-125</t>
@@ -1009,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,59 +1057,59 @@
       </c>
       <c r="L1" s="8"/>
       <c r="M1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="O2" s="29"/>
       <c r="P2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" s="39" t="s">
         <v>112</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>113</v>
       </c>
       <c r="R2" s="14"/>
     </row>
@@ -1121,13 +1118,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="18">
         <v>3</v>
@@ -1169,13 +1166,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="18">
         <v>5</v>
@@ -1207,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P4" s="18" t="str">
         <f t="shared" ref="P4:P49" si="1">IF(AND(L4&gt;=D55, M4=2, N4=2), "ANO", "NE")</f>
@@ -1221,13 +1218,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="E5" s="18">
         <v>6</v>
@@ -1259,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P5" s="18" t="str">
         <f t="shared" si="1"/>
@@ -1273,13 +1270,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="18">
         <v>6</v>
@@ -1311,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P6" s="18" t="str">
         <f t="shared" si="1"/>
@@ -1325,13 +1322,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="18">
         <v>6</v>
@@ -1363,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P7" s="18" t="str">
         <f t="shared" si="1"/>
@@ -1377,13 +1374,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D8" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="18">
         <v>6</v>
@@ -1425,13 +1422,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="18">
         <v>5</v>
@@ -1473,13 +1470,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D10" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="18">
         <v>6</v>
@@ -1521,13 +1518,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="E11" s="18">
         <v>4</v>
@@ -1559,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P11" s="18" t="str">
         <f t="shared" si="1"/>
@@ -1573,13 +1570,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="E12" s="18">
         <v>6</v>
@@ -1621,13 +1618,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="E13" s="18">
         <v>3</v>
@@ -1667,13 +1664,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D14" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="18">
         <v>6</v>
@@ -1703,7 +1700,7 @@
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P14" s="18" t="str">
         <f t="shared" si="1"/>
@@ -1717,13 +1714,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="18">
         <v>6</v>
@@ -1765,13 +1762,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D16" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="18">
         <v>6</v>
@@ -1813,13 +1810,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D17" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="18">
         <v>5</v>
@@ -1859,13 +1856,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D18" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="18">
         <v>5</v>
@@ -1899,14 +1896,14 @@
         <v>2</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P18" s="18" t="str">
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
       <c r="Q18" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S18" s="34"/>
     </row>
@@ -1915,13 +1912,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="18">
         <v>5</v>
@@ -1951,7 +1948,7 @@
       </c>
       <c r="N19" s="22"/>
       <c r="O19" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P19" s="18" t="str">
         <f t="shared" si="1"/>
@@ -1959,7 +1956,7 @@
       </c>
       <c r="Q19" s="35"/>
       <c r="S19" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1967,13 +1964,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D20" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="18">
         <v>6</v>
@@ -2007,14 +2004,14 @@
         <v>2</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P20" s="18" t="str">
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
       <c r="Q20" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S20" s="34"/>
     </row>
@@ -2023,13 +2020,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="18">
         <v>6</v>
@@ -2061,14 +2058,14 @@
         <v>2</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P21" s="18" t="str">
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S21" s="34"/>
     </row>
@@ -2077,13 +2074,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="18">
         <v>4</v>
@@ -2123,13 +2120,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="18">
         <v>6</v>
@@ -2161,14 +2158,14 @@
         <v>2</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P23" s="18" t="str">
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S23" s="34"/>
     </row>
@@ -2177,13 +2174,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="18">
         <v>6</v>
@@ -2215,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P24" s="18" t="str">
         <f t="shared" si="1"/>
@@ -2229,13 +2226,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D25" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="18">
         <v>6</v>
@@ -2331,55 +2328,55 @@
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="5" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="N27" s="9"/>
       <c r="P27" s="38"/>
       <c r="Q27" s="35"/>
       <c r="S27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="I28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="J28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="K28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="L28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="M28" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="N28" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="O28" s="29"/>
       <c r="P28" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="14"/>
       <c r="S28" s="34"/>
@@ -2389,13 +2386,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="E29" s="6">
         <v>3</v>
@@ -2437,13 +2434,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D30" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="6">
         <v>4</v>
@@ -2477,7 +2474,7 @@
       </c>
       <c r="Q30" s="35"/>
       <c r="S30" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2485,13 +2482,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="6">
         <v>5</v>
@@ -2533,13 +2530,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>79</v>
       </c>
       <c r="E32" s="6">
         <v>4</v>
@@ -2581,13 +2578,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D33" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" s="6">
         <v>4</v>
@@ -2629,13 +2626,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" s="6">
         <v>5</v>
@@ -2677,13 +2674,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D35" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="6">
         <v>6</v>
@@ -2725,13 +2722,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="6">
         <v>5</v>
@@ -2773,13 +2770,13 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="6">
         <v>5</v>
@@ -2821,13 +2818,13 @@
         <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" s="6">
         <v>5</v>
@@ -2869,13 +2866,13 @@
         <v>11</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="6">
         <v>5</v>
@@ -2907,14 +2904,14 @@
         <v>2</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P39" s="18" t="str">
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
       <c r="Q39" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S39" s="34"/>
     </row>
@@ -2923,13 +2920,13 @@
         <v>12</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D40" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="6">
         <v>6</v>
@@ -2971,13 +2968,13 @@
         <v>13</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D41" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" s="6">
         <v>4</v>
@@ -3021,13 +3018,13 @@
         <v>14</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" s="6">
         <v>5</v>
@@ -3069,13 +3066,13 @@
         <v>15</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" s="6">
         <v>5</v>
@@ -3117,13 +3114,13 @@
         <v>16</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E44" s="6">
         <v>5</v>
@@ -3165,13 +3162,13 @@
         <v>17</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E45" s="6">
         <v>6</v>
@@ -3203,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P45" s="18" t="str">
         <f t="shared" si="1"/>
@@ -3217,13 +3214,13 @@
         <v>18</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="D46" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46" s="6">
         <v>3</v>
@@ -3265,13 +3262,13 @@
         <v>19</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E47" s="6">
         <v>5</v>
@@ -3314,13 +3311,13 @@
         <v>20</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E48" s="6">
         <v>6</v>
@@ -3352,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P48" s="18" t="str">
         <f t="shared" si="1"/>
@@ -3366,13 +3363,13 @@
         <v>21</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E49" s="6">
         <v>5</v>
@@ -3455,7 +3452,7 @@
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="C53" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53">
         <v>11</v>
@@ -3472,7 +3469,7 @@
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="C54" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54">
         <f>D53-3</f>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A1AFE6-0461-405E-BF26-DA4C094129BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A28E56-ADAC-4A28-B8BB-5EC7874DD255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,10 +1144,12 @@
       <c r="J3" s="18">
         <v>1</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="20">
+        <v>1</v>
+      </c>
       <c r="L3" s="21">
         <f>SUM(E3:K3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M3" s="22">
         <v>2</v>
@@ -1192,7 +1194,9 @@
       <c r="J4" s="18">
         <v>1</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="20">
+        <v>0</v>
+      </c>
       <c r="L4" s="21">
         <f t="shared" ref="L4:L25" si="0">SUM(E4:K4)</f>
         <v>9</v>
@@ -1244,7 +1248,9 @@
       <c r="J5" s="18">
         <v>1</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
       <c r="L5" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1296,10 +1302,12 @@
       <c r="J6" s="18">
         <v>0</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="20">
+        <v>1</v>
+      </c>
       <c r="L6" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M6" s="22">
         <v>2</v>
@@ -1348,23 +1356,25 @@
       <c r="J7" s="18">
         <v>1</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="20">
+        <v>1</v>
+      </c>
       <c r="L7" s="21">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M7" s="22">
         <v>2</v>
       </c>
       <c r="N7" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="35" t="s">
         <v>114</v>
       </c>
       <c r="P7" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
+        <v>ANO</v>
       </c>
       <c r="Q7" s="35"/>
       <c r="S7" s="34"/>
@@ -1400,10 +1410,12 @@
       <c r="J8" s="18">
         <v>0</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="20">
+        <v>1</v>
+      </c>
       <c r="L8" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M8" s="22">
         <v>2</v>
@@ -1448,7 +1460,9 @@
       <c r="J9" s="18">
         <v>1</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
       <c r="L9" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1496,10 +1510,12 @@
       <c r="J10" s="18">
         <v>1</v>
       </c>
-      <c r="K10" s="20"/>
+      <c r="K10" s="20">
+        <v>1</v>
+      </c>
       <c r="L10" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M10" s="22">
         <v>2</v>
@@ -1544,10 +1560,12 @@
       <c r="J11" s="18">
         <v>1</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="20">
+        <v>1</v>
+      </c>
       <c r="L11" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M11" s="22">
         <v>2</v>
@@ -1596,7 +1614,9 @@
       <c r="J12" s="18">
         <v>0</v>
       </c>
-      <c r="K12" s="20"/>
+      <c r="K12" s="20">
+        <v>0</v>
+      </c>
       <c r="L12" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1644,7 +1664,9 @@
       <c r="J13" s="18">
         <v>0</v>
       </c>
-      <c r="K13" s="20"/>
+      <c r="K13" s="20">
+        <v>0</v>
+      </c>
       <c r="L13" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1690,10 +1712,12 @@
       <c r="J14" s="18">
         <v>1</v>
       </c>
-      <c r="K14" s="20"/>
+      <c r="K14" s="20">
+        <v>1</v>
+      </c>
       <c r="L14" s="21">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M14" s="22">
         <v>1</v>
@@ -1740,10 +1764,12 @@
       <c r="J15" s="18">
         <v>1</v>
       </c>
-      <c r="K15" s="20"/>
+      <c r="K15" s="20">
+        <v>1</v>
+      </c>
       <c r="L15" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M15" s="22">
         <v>2</v>
@@ -1788,7 +1814,9 @@
       <c r="J16" s="18">
         <v>1</v>
       </c>
-      <c r="K16" s="20"/>
+      <c r="K16" s="20">
+        <v>0</v>
+      </c>
       <c r="L16" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1836,7 +1864,9 @@
       <c r="J17" s="18">
         <v>1</v>
       </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="20">
+        <v>0</v>
+      </c>
       <c r="L17" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1938,10 +1968,12 @@
       <c r="J19" s="18">
         <v>1</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="20">
+        <v>1</v>
+      </c>
       <c r="L19" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M19" s="22">
         <v>2</v>
@@ -2046,10 +2078,12 @@
       <c r="J21" s="18">
         <v>1</v>
       </c>
-      <c r="K21" s="20"/>
+      <c r="K21" s="20">
+        <v>1</v>
+      </c>
       <c r="L21" s="21">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M21" s="22">
         <v>2</v>
@@ -2100,10 +2134,12 @@
       <c r="J22" s="18">
         <v>0</v>
       </c>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20">
+        <v>1</v>
+      </c>
       <c r="L22" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
@@ -2146,7 +2182,9 @@
       <c r="J23" s="18">
         <v>1</v>
       </c>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20">
+        <v>0</v>
+      </c>
       <c r="L23" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2200,7 +2238,9 @@
       <c r="J24" s="18">
         <v>1</v>
       </c>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20">
+        <v>0</v>
+      </c>
       <c r="L24" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2412,10 +2452,12 @@
       <c r="J29" s="18">
         <v>1</v>
       </c>
-      <c r="K29" s="20"/>
+      <c r="K29" s="20">
+        <v>1</v>
+      </c>
       <c r="L29" s="21">
         <f t="shared" ref="L29:L49" si="2">SUM(E29:K29)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M29" s="22">
         <v>2</v>
@@ -2460,10 +2502,12 @@
       <c r="J30" s="18">
         <v>1</v>
       </c>
-      <c r="K30" s="20"/>
+      <c r="K30" s="20">
+        <v>1</v>
+      </c>
       <c r="L30" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -2508,7 +2552,9 @@
       <c r="J31" s="18">
         <v>1</v>
       </c>
-      <c r="K31" s="20"/>
+      <c r="K31" s="20">
+        <v>0</v>
+      </c>
       <c r="L31" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2556,7 +2602,9 @@
       <c r="J32" s="18">
         <v>1</v>
       </c>
-      <c r="K32" s="20"/>
+      <c r="K32" s="20">
+        <v>0</v>
+      </c>
       <c r="L32" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2604,10 +2652,12 @@
       <c r="J33" s="18">
         <v>1</v>
       </c>
-      <c r="K33" s="20"/>
+      <c r="K33" s="20">
+        <v>1</v>
+      </c>
       <c r="L33" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M33" s="22">
         <v>2</v>
@@ -2652,10 +2702,12 @@
       <c r="J34" s="18">
         <v>1</v>
       </c>
-      <c r="K34" s="20"/>
+      <c r="K34" s="20">
+        <v>1</v>
+      </c>
       <c r="L34" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M34" s="22">
         <v>2</v>
@@ -2700,7 +2752,9 @@
       <c r="J35" s="18">
         <v>1</v>
       </c>
-      <c r="K35" s="20"/>
+      <c r="K35" s="20">
+        <v>0</v>
+      </c>
       <c r="L35" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -2748,10 +2802,12 @@
       <c r="J36" s="18">
         <v>0</v>
       </c>
-      <c r="K36" s="20"/>
+      <c r="K36" s="20">
+        <v>1</v>
+      </c>
       <c r="L36" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M36" s="22">
         <v>2</v>
@@ -2796,7 +2852,9 @@
       <c r="J37" s="18">
         <v>1</v>
       </c>
-      <c r="K37" s="20"/>
+      <c r="K37" s="20">
+        <v>0</v>
+      </c>
       <c r="L37" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2844,10 +2902,12 @@
       <c r="J38" s="18">
         <v>1</v>
       </c>
-      <c r="K38" s="20"/>
+      <c r="K38" s="20">
+        <v>1</v>
+      </c>
       <c r="L38" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M38" s="22">
         <v>2</v>
@@ -2892,7 +2952,9 @@
       <c r="J39" s="18">
         <v>0</v>
       </c>
-      <c r="K39" s="20"/>
+      <c r="K39" s="20">
+        <v>0</v>
+      </c>
       <c r="L39" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2946,7 +3008,9 @@
       <c r="J40" s="18">
         <v>1</v>
       </c>
-      <c r="K40" s="20"/>
+      <c r="K40" s="20">
+        <v>0</v>
+      </c>
       <c r="L40" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -3044,7 +3108,9 @@
       <c r="J42" s="18">
         <v>1</v>
       </c>
-      <c r="K42" s="20"/>
+      <c r="K42" s="20">
+        <v>0</v>
+      </c>
       <c r="L42" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3092,7 +3158,9 @@
       <c r="J43" s="18">
         <v>0</v>
       </c>
-      <c r="K43" s="20"/>
+      <c r="K43" s="20">
+        <v>0</v>
+      </c>
       <c r="L43" s="21">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -3140,7 +3208,9 @@
       <c r="J44" s="18">
         <v>1</v>
       </c>
-      <c r="K44" s="20"/>
+      <c r="K44" s="20">
+        <v>0</v>
+      </c>
       <c r="L44" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3188,7 +3258,9 @@
       <c r="J45" s="18">
         <v>1</v>
       </c>
-      <c r="K45" s="20"/>
+      <c r="K45" s="20">
+        <v>0</v>
+      </c>
       <c r="L45" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3240,7 +3312,9 @@
       <c r="J46" s="18">
         <v>1</v>
       </c>
-      <c r="K46" s="20"/>
+      <c r="K46" s="20">
+        <v>0</v>
+      </c>
       <c r="L46" s="21">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -3288,7 +3362,9 @@
       <c r="J47" s="18">
         <v>1</v>
       </c>
-      <c r="K47" s="20"/>
+      <c r="K47" s="20">
+        <v>0</v>
+      </c>
       <c r="L47" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -3337,7 +3413,9 @@
       <c r="J48" s="18">
         <v>1</v>
       </c>
-      <c r="K48" s="20"/>
+      <c r="K48" s="20">
+        <v>0</v>
+      </c>
       <c r="L48" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3389,7 +3467,9 @@
       <c r="J49" s="18">
         <v>1</v>
       </c>
-      <c r="K49" s="20"/>
+      <c r="K49" s="20">
+        <v>0</v>
+      </c>
       <c r="L49" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -3422,7 +3502,7 @@
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -3455,7 +3535,7 @@
         <v>19</v>
       </c>
       <c r="D53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="24"/>
@@ -3473,7 +3553,7 @@
       </c>
       <c r="D54">
         <f>D53-3</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" s="31"/>
       <c r="F54" s="26"/>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A28E56-ADAC-4A28-B8BB-5EC7874DD255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB98B785-044F-49FD-B9F6-E8029D22A800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1376,9 @@
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
-      <c r="Q7" s="35"/>
+      <c r="Q7" s="35" t="s">
+        <v>116</v>
+      </c>
       <c r="S7" s="34"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1420,8 +1422,12 @@
       <c r="M8" s="22">
         <v>2</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="35"/>
+      <c r="N8" s="22">
+        <v>1</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2712,8 +2718,12 @@
       <c r="M34" s="22">
         <v>2</v>
       </c>
-      <c r="N34" s="22"/>
-      <c r="O34" s="35"/>
+      <c r="N34" s="22">
+        <v>1</v>
+      </c>
+      <c r="O34" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="P34" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -3068,8 +3078,12 @@
       <c r="M41" s="22">
         <v>2</v>
       </c>
-      <c r="N41" s="22"/>
-      <c r="O41" s="35"/>
+      <c r="N41" s="22">
+        <v>1</v>
+      </c>
+      <c r="O41" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="P41" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -3269,16 +3283,18 @@
         <v>2</v>
       </c>
       <c r="N45" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" s="35" t="s">
         <v>113</v>
       </c>
       <c r="P45" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
-      </c>
-      <c r="Q45" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q45" s="35" t="s">
+        <v>116</v>
+      </c>
       <c r="S45" s="34"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -3424,16 +3440,18 @@
         <v>2</v>
       </c>
       <c r="N48" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" s="35" t="s">
         <v>113</v>
       </c>
       <c r="P48" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
-      </c>
-      <c r="Q48" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q48" s="35" t="s">
+        <v>116</v>
+      </c>
       <c r="S48" s="34"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -3502,7 +3520,7 @@
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB98B785-044F-49FD-B9F6-E8029D22A800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481BE967-CBF3-4BD3-841A-B7C164556B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="117">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,14 +1259,14 @@
         <v>2</v>
       </c>
       <c r="N5" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" s="35" t="s">
         <v>113</v>
       </c>
       <c r="P5" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
+        <v>ANO</v>
       </c>
       <c r="Q5" s="35"/>
       <c r="S5" s="34"/>
@@ -1526,8 +1526,12 @@
       <c r="M10" s="22">
         <v>2</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="35"/>
+      <c r="N10" s="22">
+        <v>1</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="P10" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -1984,7 +1988,9 @@
       <c r="M19" s="22">
         <v>2</v>
       </c>
-      <c r="N19" s="22"/>
+      <c r="N19" s="22">
+        <v>1</v>
+      </c>
       <c r="O19" s="35" t="s">
         <v>110</v>
       </c>
@@ -2669,7 +2675,9 @@
         <v>2</v>
       </c>
       <c r="N33" s="22"/>
-      <c r="O33" s="35"/>
+      <c r="O33" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="P33" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2719,14 +2727,14 @@
         <v>2</v>
       </c>
       <c r="N34" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P34" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
+        <v>ANO</v>
       </c>
       <c r="Q34" s="35"/>
       <c r="S34" s="34"/>
@@ -3520,7 +3528,7 @@
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481BE967-CBF3-4BD3-841A-B7C164556B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CA7828-40DC-42E3-BE43-7DF52BFABDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="117">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="H23" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1268,9 @@
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
-      <c r="Q5" s="35"/>
+      <c r="Q5" s="35" t="s">
+        <v>116</v>
+      </c>
       <c r="S5" s="34"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1426,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="1"/>
@@ -1530,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P10" s="18" t="str">
         <f t="shared" si="1"/>
@@ -2736,7 +2738,9 @@
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
-      <c r="Q34" s="35"/>
+      <c r="Q34" s="35" t="s">
+        <v>116</v>
+      </c>
       <c r="S34" s="34"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3090,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P41" s="18" t="str">
         <f t="shared" si="1"/>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CA7828-40DC-42E3-BE43-7DF52BFABDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE2ADF-3055-4C97-8D35-9F6FEB9A83CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H23" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,7 +2676,9 @@
       <c r="M33" s="22">
         <v>2</v>
       </c>
-      <c r="N33" s="22"/>
+      <c r="N33" s="22">
+        <v>1</v>
+      </c>
       <c r="O33" s="35" t="s">
         <v>114</v>
       </c>
@@ -3532,7 +3534,7 @@
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE2ADF-3055-4C97-8D35-9F6FEB9A83CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B1646A-AB03-4443-A0F0-0077E4D685B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,16 +1205,18 @@
         <v>2</v>
       </c>
       <c r="N4" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P4" s="18" t="str">
         <f t="shared" ref="P4:P49" si="1">IF(AND(L4&gt;=D55, M4=2, N4=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="Q4" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>116</v>
+      </c>
       <c r="S4" s="34"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -3093,16 +3095,18 @@
         <v>2</v>
       </c>
       <c r="N41" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" s="35" t="s">
         <v>113</v>
       </c>
       <c r="P41" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
-      </c>
-      <c r="Q41" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q41" s="35" t="s">
+        <v>116</v>
+      </c>
       <c r="S41" s="34"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -3534,7 +3538,7 @@
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B1646A-AB03-4443-A0F0-0077E4D685B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29D540D-C96E-4685-93E6-1CEE92EB8C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -383,10 +383,10 @@
     <t>2, 4</t>
   </si>
   <si>
-    <t>2, 3, 4</t>
-  </si>
-  <si>
     <t>ano</t>
+  </si>
+  <si>
+    <t>2, 3, (4)</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1215,7 @@
         <v>ANO</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S4" s="34"/>
     </row>
@@ -1271,7 +1271,7 @@
         <v>ANO</v>
       </c>
       <c r="Q5" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S5" s="34"/>
     </row>
@@ -1381,7 +1381,7 @@
         <v>ANO</v>
       </c>
       <c r="Q7" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S7" s="34"/>
     </row>
@@ -1480,8 +1480,12 @@
       <c r="M9" s="22">
         <v>2</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="35"/>
+      <c r="N9" s="22">
+        <v>1</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="P9" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -1947,7 +1951,7 @@
         <v>ANO</v>
       </c>
       <c r="Q18" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S18" s="34"/>
     </row>
@@ -2059,7 +2063,7 @@
         <v>ANO</v>
       </c>
       <c r="Q20" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S20" s="34"/>
     </row>
@@ -2115,7 +2119,7 @@
         <v>ANO</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S21" s="34"/>
     </row>
@@ -2219,7 +2223,7 @@
         <v>ANO</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S23" s="34"/>
     </row>
@@ -2265,14 +2269,14 @@
         <v>2</v>
       </c>
       <c r="N24" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P24" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
+        <v>ANO</v>
       </c>
       <c r="Q24" s="35"/>
       <c r="S24" s="34"/>
@@ -2743,7 +2747,7 @@
         <v>ANO</v>
       </c>
       <c r="Q34" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S34" s="34"/>
     </row>
@@ -2788,8 +2792,12 @@
       <c r="M35" s="22">
         <v>2</v>
       </c>
-      <c r="N35" s="22"/>
-      <c r="O35" s="35"/>
+      <c r="N35" s="22">
+        <v>1</v>
+      </c>
+      <c r="O35" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="P35" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2839,7 +2847,9 @@
         <v>2</v>
       </c>
       <c r="N36" s="22"/>
-      <c r="O36" s="35"/>
+      <c r="O36" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="P36" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -2999,7 +3009,7 @@
         <v>ANO</v>
       </c>
       <c r="Q39" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S39" s="34"/>
     </row>
@@ -3105,7 +3115,7 @@
         <v>ANO</v>
       </c>
       <c r="Q41" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S41" s="34"/>
     </row>
@@ -3311,7 +3321,7 @@
         <v>ANO</v>
       </c>
       <c r="Q45" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S45" s="34"/>
     </row>
@@ -3357,7 +3367,9 @@
         <v>2</v>
       </c>
       <c r="N46" s="22"/>
-      <c r="O46" s="35"/>
+      <c r="O46" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="P46" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
@@ -3468,7 +3480,7 @@
         <v>ANO</v>
       </c>
       <c r="Q48" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S48" s="34"/>
     </row>
@@ -3538,8 +3550,9 @@
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="Q50" s="37"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29D540D-C96E-4685-93E6-1CEE92EB8C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CCCCF8-12C7-4887-8578-260FC2638579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="118">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>2, 3, (4)</t>
+  </si>
+  <si>
+    <t>2, 5</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,14 +2686,14 @@
         <v>2</v>
       </c>
       <c r="N33" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" s="35" t="s">
         <v>114</v>
       </c>
       <c r="P33" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
+        <v>ANO</v>
       </c>
       <c r="Q33" s="35"/>
       <c r="S33" s="34"/>
@@ -2796,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P35" s="18" t="str">
         <f t="shared" si="1"/>
@@ -3366,9 +3369,11 @@
       <c r="M46" s="22">
         <v>2</v>
       </c>
-      <c r="N46" s="22"/>
+      <c r="N46" s="22">
+        <v>1</v>
+      </c>
       <c r="O46" s="35" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P46" s="18" t="str">
         <f t="shared" si="1"/>
@@ -3550,7 +3555,7 @@
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q50" s="37"/>
     </row>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CCCCF8-12C7-4887-8578-260FC2638579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CE725A-13AB-4F7E-AE3C-AEA64F0D1B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="4530" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="118">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,7 +2281,9 @@
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
-      <c r="Q24" s="35"/>
+      <c r="Q24" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S24" s="34"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -2695,7 +2697,9 @@
         <f t="shared" si="1"/>
         <v>ANO</v>
       </c>
-      <c r="Q33" s="35"/>
+      <c r="Q33" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S33" s="34"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CE725A-13AB-4F7E-AE3C-AEA64F0D1B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAE9A6E-6508-4FA1-99F6-186EE0C478B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="4530" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="118">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="L25" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1160,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="35"/>
       <c r="P3" s="18" t="str">
-        <f>IF(AND(L3&gt;=D54, M3=2, N3=2), "ANO", "NE")</f>
+        <f t="shared" ref="P3:P24" si="0">IF(AND(L3&gt;=$D$54, M3=2, N3=2), "ANO", "NE")</f>
         <v>NE</v>
       </c>
       <c r="Q3" s="35"/>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="21">
-        <f t="shared" ref="L4:L25" si="0">SUM(E4:K4)</f>
+        <f t="shared" ref="L4:L25" si="1">SUM(E4:K4)</f>
         <v>9</v>
       </c>
       <c r="M4" s="22">
@@ -1214,7 +1214,7 @@
         <v>114</v>
       </c>
       <c r="P4" s="18" t="str">
-        <f t="shared" ref="P4:P49" si="1">IF(AND(L4&gt;=D55, M4=2, N4=2), "ANO", "NE")</f>
+        <f t="shared" si="0"/>
         <v>ANO</v>
       </c>
       <c r="Q4" s="35" t="s">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M5" s="22">
@@ -1270,7 +1270,7 @@
         <v>113</v>
       </c>
       <c r="P5" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ANO</v>
       </c>
       <c r="Q5" s="35" t="s">
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M6" s="22">
@@ -1326,7 +1326,7 @@
         <v>110</v>
       </c>
       <c r="P6" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>NE</v>
       </c>
       <c r="Q6" s="35"/>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M7" s="22">
@@ -1380,7 +1380,7 @@
         <v>114</v>
       </c>
       <c r="P7" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ANO</v>
       </c>
       <c r="Q7" s="35" t="s">
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M8" s="22">
@@ -1436,7 +1436,7 @@
         <v>113</v>
       </c>
       <c r="P8" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>NE</v>
       </c>
       <c r="Q8" s="35"/>
@@ -1477,23 +1477,25 @@
         <v>0</v>
       </c>
       <c r="L9" s="21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M9" s="22">
+        <v>2</v>
+      </c>
+      <c r="N9" s="22">
+        <v>2</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M9" s="22">
-        <v>2</v>
-      </c>
-      <c r="N9" s="22">
-        <v>1</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="P9" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>NE</v>
-      </c>
-      <c r="Q9" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S9" s="34"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1531,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M10" s="22">
@@ -1544,7 +1546,7 @@
         <v>113</v>
       </c>
       <c r="P10" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>NE</v>
       </c>
       <c r="Q10" s="35"/>
@@ -1585,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M11" s="22">
@@ -1598,7 +1600,7 @@
         <v>110</v>
       </c>
       <c r="P11" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>NE</v>
       </c>
       <c r="Q11" s="35"/>
@@ -1639,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M12" s="22">
@@ -1648,7 +1650,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="35"/>
       <c r="P12" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>NE</v>
       </c>
       <c r="Q12" s="35"/>
@@ -1689,14 +1691,14 @@
         <v>0</v>
       </c>
       <c r="L13" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="35"/>
       <c r="P13" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>NE</v>
       </c>
       <c r="Q13" s="35"/>
@@ -1737,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M14" s="22">
@@ -1748,7 +1750,7 @@
         <v>110</v>
       </c>
       <c r="P14" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>NE</v>
       </c>
       <c r="Q14" s="35"/>
@@ -1789,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M15" s="22">
@@ -1798,7 +1800,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="35"/>
       <c r="P15" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>NE</v>
       </c>
       <c r="Q15" s="35"/>
@@ -1839,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M16" s="22">
@@ -1848,7 +1850,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="35"/>
       <c r="P16" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>NE</v>
       </c>
       <c r="Q16" s="35"/>
@@ -1889,14 +1891,14 @@
         <v>0</v>
       </c>
       <c r="L17" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="35"/>
       <c r="P17" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>NE</v>
       </c>
       <c r="Q17" s="35"/>
@@ -1937,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M18" s="22">
@@ -1950,7 +1952,7 @@
         <v>114</v>
       </c>
       <c r="P18" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ANO</v>
       </c>
       <c r="Q18" s="35" t="s">
@@ -1993,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M19" s="22">
@@ -2006,7 +2008,7 @@
         <v>110</v>
       </c>
       <c r="P19" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>NE</v>
       </c>
       <c r="Q19" s="35"/>
@@ -2049,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M20" s="22">
@@ -2062,7 +2064,7 @@
         <v>113</v>
       </c>
       <c r="P20" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ANO</v>
       </c>
       <c r="Q20" s="35" t="s">
@@ -2105,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M21" s="22">
@@ -2118,7 +2120,7 @@
         <v>114</v>
       </c>
       <c r="P21" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ANO</v>
       </c>
       <c r="Q21" s="35" t="s">
@@ -2161,14 +2163,14 @@
         <v>1</v>
       </c>
       <c r="L22" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="35"/>
       <c r="P22" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>NE</v>
       </c>
       <c r="Q22" s="35"/>
@@ -2209,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M23" s="22">
@@ -2222,7 +2224,7 @@
         <v>113</v>
       </c>
       <c r="P23" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ANO</v>
       </c>
       <c r="Q23" s="35" t="s">
@@ -2265,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M24" s="22">
@@ -2278,7 +2280,7 @@
         <v>116</v>
       </c>
       <c r="P24" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ANO</v>
       </c>
       <c r="Q24" s="35" t="s">
@@ -2321,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M25" s="22">
@@ -2330,7 +2332,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="35"/>
       <c r="P25" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P25" si="2">IF(AND(L25&gt;=$D$54, M25=2, N25=2), "ANO", "NE")</f>
         <v>NE</v>
       </c>
       <c r="Q25" s="35"/>
@@ -2357,7 +2359,7 @@
       </c>
       <c r="O26" s="35"/>
       <c r="P26" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P4:P49" si="3">IF(AND(L26&gt;=D77, M26=2, N26=2), "ANO", "NE")</f>
         <v>NE</v>
       </c>
       <c r="Q26" s="35"/>
@@ -2481,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="21">
-        <f t="shared" ref="L29:L49" si="2">SUM(E29:K29)</f>
+        <f t="shared" ref="L29:L49" si="4">SUM(E29:K29)</f>
         <v>9</v>
       </c>
       <c r="M29" s="22">
@@ -2490,7 +2492,7 @@
       <c r="N29" s="22"/>
       <c r="O29" s="35"/>
       <c r="P29" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P29:P45" si="5">IF(AND(L29&gt;=$D$54, M29=2, N29=2), "ANO", "NE")</f>
         <v>NE</v>
       </c>
       <c r="Q29" s="35"/>
@@ -2531,14 +2533,14 @@
         <v>1</v>
       </c>
       <c r="L30" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="35"/>
       <c r="P30" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>NE</v>
       </c>
       <c r="Q30" s="35"/>
@@ -2581,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M31" s="22">
@@ -2590,7 +2592,7 @@
       <c r="N31" s="22"/>
       <c r="O31" s="35"/>
       <c r="P31" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>NE</v>
       </c>
       <c r="Q31" s="35"/>
@@ -2631,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M32" s="22">
@@ -2640,7 +2642,7 @@
       <c r="N32" s="22"/>
       <c r="O32" s="35"/>
       <c r="P32" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>NE</v>
       </c>
       <c r="Q32" s="35"/>
@@ -2681,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M33" s="22">
@@ -2694,7 +2696,7 @@
         <v>114</v>
       </c>
       <c r="P33" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>ANO</v>
       </c>
       <c r="Q33" s="35" t="s">
@@ -2737,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M34" s="22">
@@ -2750,7 +2752,7 @@
         <v>114</v>
       </c>
       <c r="P34" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>ANO</v>
       </c>
       <c r="Q34" s="35" t="s">
@@ -2793,23 +2795,25 @@
         <v>0</v>
       </c>
       <c r="L35" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="M35" s="22">
         <v>2</v>
       </c>
       <c r="N35" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" s="35" t="s">
         <v>114</v>
       </c>
       <c r="P35" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>NE</v>
-      </c>
-      <c r="Q35" s="35"/>
+        <f t="shared" si="5"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q35" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S35" s="34"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -2847,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M36" s="22">
@@ -2858,7 +2862,7 @@
         <v>110</v>
       </c>
       <c r="P36" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>NE</v>
       </c>
       <c r="Q36" s="35"/>
@@ -2899,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M37" s="22">
@@ -2908,7 +2912,7 @@
       <c r="N37" s="22"/>
       <c r="O37" s="35"/>
       <c r="P37" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>NE</v>
       </c>
       <c r="Q37" s="35"/>
@@ -2949,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M38" s="22">
@@ -2958,7 +2962,7 @@
       <c r="N38" s="22"/>
       <c r="O38" s="35"/>
       <c r="P38" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>NE</v>
       </c>
       <c r="Q38" s="35"/>
@@ -2999,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M39" s="22">
@@ -3012,7 +3016,7 @@
         <v>113</v>
       </c>
       <c r="P39" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>ANO</v>
       </c>
       <c r="Q39" s="35" t="s">
@@ -3055,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M40" s="22">
@@ -3064,7 +3068,7 @@
       <c r="N40" s="22"/>
       <c r="O40" s="35"/>
       <c r="P40" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>NE</v>
       </c>
       <c r="Q40" s="35"/>
@@ -3105,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M41" s="22">
@@ -3118,7 +3122,7 @@
         <v>113</v>
       </c>
       <c r="P41" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>ANO</v>
       </c>
       <c r="Q41" s="35" t="s">
@@ -3161,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M42" s="22">
@@ -3170,7 +3174,7 @@
       <c r="N42" s="22"/>
       <c r="O42" s="35"/>
       <c r="P42" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>NE</v>
       </c>
       <c r="Q42" s="35"/>
@@ -3211,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M43" s="22">
@@ -3220,7 +3224,7 @@
       <c r="N43" s="22"/>
       <c r="O43" s="35"/>
       <c r="P43" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>NE</v>
       </c>
       <c r="Q43" s="35"/>
@@ -3261,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M44" s="22">
@@ -3270,7 +3274,7 @@
       <c r="N44" s="22"/>
       <c r="O44" s="35"/>
       <c r="P44" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>NE</v>
       </c>
       <c r="Q44" s="35"/>
@@ -3311,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M45" s="22">
@@ -3324,7 +3328,7 @@
         <v>113</v>
       </c>
       <c r="P45" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>ANO</v>
       </c>
       <c r="Q45" s="35" t="s">
@@ -3364,26 +3368,28 @@
         <v>1</v>
       </c>
       <c r="K46" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="21">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="M46" s="22">
         <v>2</v>
       </c>
       <c r="N46" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O46" s="35" t="s">
         <v>117</v>
       </c>
       <c r="P46" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>NE</v>
-      </c>
-      <c r="Q46" s="35"/>
+        <f>IF(AND(L46&gt;=$D$54, M46=2, N46=2), "ANO", "NE")</f>
+        <v>ANO</v>
+      </c>
+      <c r="Q46" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S46" s="34"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -3421,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M47" s="22">
@@ -3430,7 +3436,7 @@
       <c r="N47" s="22"/>
       <c r="O47" s="35"/>
       <c r="P47" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P47:P49" si="6">IF(AND(L47&gt;=$D$54, M47=2, N47=2), "ANO", "NE")</f>
         <v>NE</v>
       </c>
       <c r="Q47" s="35"/>
@@ -3472,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="M48" s="22">
@@ -3485,7 +3491,7 @@
         <v>113</v>
       </c>
       <c r="P48" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>ANO</v>
       </c>
       <c r="Q48" s="35" t="s">
@@ -3528,14 +3534,14 @@
         <v>0</v>
       </c>
       <c r="L49" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="35"/>
       <c r="P49" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>NE</v>
       </c>
       <c r="Q49" s="35"/>
@@ -3559,7 +3565,7 @@
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q50" s="37"/>
     </row>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAE9A6E-6508-4FA1-99F6-186EE0C478B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F562A00-B215-46D8-A117-2A36D4EBEB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>2, 5</t>
+  </si>
+  <si>
+    <t>4, 5</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -560,11 +563,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,6 +677,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1009,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L25" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,16 +1337,18 @@
         <v>2</v>
       </c>
       <c r="N6" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P6" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>NE</v>
-      </c>
-      <c r="Q6" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S6" s="34"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1430,16 +1449,18 @@
         <v>2</v>
       </c>
       <c r="N8" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" s="35" t="s">
         <v>113</v>
       </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>NE</v>
-      </c>
-      <c r="Q8" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S8" s="34"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1540,16 +1561,18 @@
         <v>2</v>
       </c>
       <c r="N10" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" s="35" t="s">
         <v>113</v>
       </c>
       <c r="P10" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>NE</v>
-      </c>
-      <c r="Q10" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S10" s="34"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1594,16 +1617,18 @@
         <v>2</v>
       </c>
       <c r="N11" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P11" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>NE</v>
-      </c>
-      <c r="Q11" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S11" s="34"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1797,13 +1822,19 @@
       <c r="M15" s="22">
         <v>2</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="35"/>
+      <c r="N15" s="22">
+        <v>2</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>117</v>
+      </c>
       <c r="P15" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>NE</v>
-      </c>
-      <c r="Q15" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S15" s="34"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1895,8 +1926,12 @@
         <v>9</v>
       </c>
       <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="35"/>
+      <c r="N17" s="22">
+        <v>2</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>117</v>
+      </c>
       <c r="P17" s="18" t="str">
         <f t="shared" si="0"/>
         <v>NE</v>
@@ -2005,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P19" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2329,13 +2364,19 @@
       <c r="M25" s="22">
         <v>2</v>
       </c>
-      <c r="N25" s="22"/>
-      <c r="O25" s="35"/>
+      <c r="N25" s="22">
+        <v>2</v>
+      </c>
+      <c r="O25" s="35" t="s">
+        <v>117</v>
+      </c>
       <c r="P25" s="18" t="str">
         <f t="shared" ref="P25" si="2">IF(AND(L25&gt;=$D$54, M25=2, N25=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="Q25" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q25" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S25" s="34"/>
     </row>
     <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -2359,7 +2400,7 @@
       </c>
       <c r="O26" s="35"/>
       <c r="P26" s="18" t="str">
-        <f t="shared" ref="P4:P49" si="3">IF(AND(L26&gt;=D77, M26=2, N26=2), "ANO", "NE")</f>
+        <f t="shared" ref="P26" si="3">IF(AND(L26&gt;=D77, M26=2, N26=2), "ANO", "NE")</f>
         <v>NE</v>
       </c>
       <c r="Q26" s="35"/>
@@ -2398,6 +2439,9 @@
         <v>109</v>
       </c>
       <c r="N27" s="9"/>
+      <c r="O27" s="36" t="s">
+        <v>108</v>
+      </c>
       <c r="P27" s="38"/>
       <c r="Q27" s="35"/>
       <c r="S27" t="s">
@@ -2589,8 +2633,12 @@
       <c r="M31" s="22">
         <v>2</v>
       </c>
-      <c r="N31" s="22"/>
-      <c r="O31" s="35"/>
+      <c r="N31" s="22">
+        <v>1</v>
+      </c>
+      <c r="O31" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="P31" s="18" t="str">
         <f t="shared" si="5"/>
         <v>NE</v>
@@ -2857,15 +2905,19 @@
       <c r="M36" s="22">
         <v>2</v>
       </c>
-      <c r="N36" s="22"/>
+      <c r="N36" s="22">
+        <v>2</v>
+      </c>
       <c r="O36" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P36" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>NE</v>
-      </c>
-      <c r="Q36" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q36" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S36" s="34"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -3065,13 +3117,19 @@
       <c r="M40" s="22">
         <v>2</v>
       </c>
-      <c r="N40" s="22"/>
-      <c r="O40" s="35"/>
+      <c r="N40" s="22">
+        <v>2</v>
+      </c>
+      <c r="O40" s="35" t="s">
+        <v>113</v>
+      </c>
       <c r="P40" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>NE</v>
-      </c>
-      <c r="Q40" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q40" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S40" s="34"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -3171,8 +3229,12 @@
       <c r="M42" s="22">
         <v>2</v>
       </c>
-      <c r="N42" s="22"/>
-      <c r="O42" s="35"/>
+      <c r="N42" s="22">
+        <v>1</v>
+      </c>
+      <c r="O42" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="P42" s="18" t="str">
         <f t="shared" si="5"/>
         <v>NE</v>
@@ -3271,13 +3333,19 @@
       <c r="M44" s="22">
         <v>2</v>
       </c>
-      <c r="N44" s="22"/>
-      <c r="O44" s="35"/>
+      <c r="N44" s="22">
+        <v>2</v>
+      </c>
+      <c r="O44" s="35" t="s">
+        <v>118</v>
+      </c>
       <c r="P44" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>NE</v>
-      </c>
-      <c r="Q44" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q44" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S44" s="34"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -3565,8 +3633,9 @@
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>39</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="P50" s="40"/>
       <c r="Q50" s="37"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F562A00-B215-46D8-A117-2A36D4EBEB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA44850F-592A-44EC-B3D9-DDB7CFFF12BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="119">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -679,7 +679,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,8 +1878,12 @@
       <c r="M16" s="22">
         <v>2</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="35"/>
+      <c r="N16" s="22">
+        <v>1</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="P16" s="18" t="str">
         <f t="shared" si="0"/>
         <v>NE</v>
@@ -1925,7 +1929,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M17" s="22"/>
+      <c r="M17" s="22">
+        <v>2</v>
+      </c>
       <c r="N17" s="22">
         <v>2</v>
       </c>
@@ -1934,9 +1940,11 @@
       </c>
       <c r="P17" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>NE</v>
-      </c>
-      <c r="Q17" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q17" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S17" s="34"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2037,16 +2045,18 @@
         <v>2</v>
       </c>
       <c r="N19" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" s="35" t="s">
         <v>113</v>
       </c>
       <c r="P19" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>NE</v>
-      </c>
-      <c r="Q19" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S19" s="34" t="s">
         <v>106</v>
       </c>
@@ -2634,16 +2644,18 @@
         <v>2</v>
       </c>
       <c r="N31" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" s="35" t="s">
         <v>114</v>
       </c>
       <c r="P31" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>NE</v>
-      </c>
-      <c r="Q31" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q31" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S31" s="34"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -3230,16 +3242,18 @@
         <v>2</v>
       </c>
       <c r="N42" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O42" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P42" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>NE</v>
-      </c>
-      <c r="Q42" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q42" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S42" s="34"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -3629,11 +3643,11 @@
       <c r="L50" s="24"/>
       <c r="M50" s="37">
         <f>SUM(M29:M49,M3:M25)</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P50" s="40"/>
       <c r="Q50" s="37"/>
@@ -3649,6 +3663,9 @@
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="M51" s="32"/>
+      <c r="Q51">
+        <v>30</v>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA44850F-592A-44EC-B3D9-DDB7CFFF12BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBD22F3-011F-4EED-9018-D707DBC59B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="119">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,8 +3023,12 @@
       <c r="M38" s="22">
         <v>2</v>
       </c>
-      <c r="N38" s="22"/>
-      <c r="O38" s="35"/>
+      <c r="N38" s="22">
+        <v>1</v>
+      </c>
+      <c r="O38" s="35" t="s">
+        <v>110</v>
+      </c>
       <c r="P38" s="18" t="str">
         <f t="shared" si="5"/>
         <v>NE</v>
@@ -3647,7 +3651,7 @@
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P50" s="40"/>
       <c r="Q50" s="37"/>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBD22F3-011F-4EED-9018-D707DBC59B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD1E90E-9138-47CD-8153-21E453E5B58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="119">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,7 +1768,7 @@
         <v>12</v>
       </c>
       <c r="M14" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="35" t="s">
@@ -3024,16 +3024,18 @@
         <v>2</v>
       </c>
       <c r="N38" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O38" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P38" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>NE</v>
-      </c>
-      <c r="Q38" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q38" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S38" s="34"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -3647,11 +3649,11 @@
       <c r="L50" s="24"/>
       <c r="M50" s="37">
         <f>SUM(M29:M49,M3:M25)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P50" s="40"/>
       <c r="Q50" s="37"/>
@@ -3668,7 +3670,7 @@
       <c r="L51" s="24"/>
       <c r="M51" s="32"/>
       <c r="Q51">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD1E90E-9138-47CD-8153-21E453E5B58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ADDE01-8EAC-4D20-B0EF-CF7012D23F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="660" windowWidth="24780" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="121">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>4, 5</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>celkem Z:</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -563,22 +569,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -677,9 +672,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="110" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,15 +1762,19 @@
       <c r="M14" s="22">
         <v>2</v>
       </c>
-      <c r="N14" s="22"/>
+      <c r="N14" s="22">
+        <v>2</v>
+      </c>
       <c r="O14" s="35" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P14" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>NE</v>
-      </c>
-      <c r="Q14" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S14" s="34"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2699,8 +2695,12 @@
       <c r="M32" s="22">
         <v>2</v>
       </c>
-      <c r="N32" s="22"/>
-      <c r="O32" s="35"/>
+      <c r="N32" s="22">
+        <v>1</v>
+      </c>
+      <c r="O32" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="P32" s="18" t="str">
         <f t="shared" si="5"/>
         <v>NE</v>
@@ -2973,13 +2973,19 @@
       <c r="M37" s="22">
         <v>2</v>
       </c>
-      <c r="N37" s="22"/>
-      <c r="O37" s="35"/>
+      <c r="N37" s="22">
+        <v>2</v>
+      </c>
+      <c r="O37" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="P37" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>NE</v>
-      </c>
-      <c r="Q37" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q37" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S37" s="34"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -3625,14 +3631,22 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="35"/>
+      <c r="M49" s="22">
+        <v>2</v>
+      </c>
+      <c r="N49" s="22">
+        <v>2</v>
+      </c>
+      <c r="O49" s="35" t="s">
+        <v>119</v>
+      </c>
       <c r="P49" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>NE</v>
-      </c>
-      <c r="Q49" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q49" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S49" s="34"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -3649,13 +3663,13 @@
       <c r="L50" s="24"/>
       <c r="M50" s="37">
         <f>SUM(M29:M49,M3:M25)</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>63</v>
-      </c>
-      <c r="P50" s="40"/>
+        <v>70</v>
+      </c>
+      <c r="P50" s="38"/>
       <c r="Q50" s="37"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -3669,8 +3683,12 @@
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="M51" s="32"/>
+      <c r="P51" t="s">
+        <v>120</v>
+      </c>
       <c r="Q51">
-        <v>31</v>
+        <f>COUNTIF(Q3:Q49, "ano")</f>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linux_Windows_Share\b_PhD\NMEcv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ADDE01-8EAC-4D20-B0EF-CF7012D23F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE5BBCF-6733-4DCD-8A6E-DAA2192AC7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="660" windowWidth="24780" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="121">
   <si>
     <t>Dominika a Jirka</t>
   </si>
@@ -1018,25 +1018,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="110" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="14" width="8.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="14" width="8.125" customWidth="1"/>
+    <col min="15" max="15" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="34.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="9.125" customWidth="1"/>
+    <col min="19" max="19" width="34.25" customWidth="1"/>
+    <col min="21" max="21" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="Q3" s="35"/>
       <c r="S3" s="34"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="S4" s="34"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="S5" s="34"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="S6" s="34"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="S7" s="34"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="S8" s="34"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="S9" s="34"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="S10" s="34"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="S11" s="34"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="Q12" s="35"/>
       <c r="S12" s="34"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="Q13" s="35"/>
       <c r="S13" s="34"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="S14" s="34"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="S15" s="34"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="Q16" s="35"/>
       <c r="S16" s="34"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="S17" s="34"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="S18" s="34"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="S20" s="34"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>19</v>
       </c>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="S21" s="34"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -2217,7 +2217,7 @@
       <c r="Q22" s="35"/>
       <c r="S22" s="34"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>21</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="S23" s="34"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="S24" s="34"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="S25" s="34"/>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -2498,7 +2498,7 @@
       <c r="Q28" s="14"/>
       <c r="S28" s="34"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="Q29" s="35"/>
       <c r="S29" s="34"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>2</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>3</v>
       </c>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="S31" s="34"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>4</v>
       </c>
@@ -2696,19 +2696,21 @@
         <v>2</v>
       </c>
       <c r="N32" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" s="35" t="s">
         <v>114</v>
       </c>
       <c r="P32" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>NE</v>
-      </c>
-      <c r="Q32" s="35"/>
+        <v>ANO</v>
+      </c>
+      <c r="Q32" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="S32" s="34"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>5</v>
       </c>
@@ -2764,7 +2766,7 @@
       </c>
       <c r="S33" s="34"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>6</v>
       </c>
@@ -2820,7 +2822,7 @@
       </c>
       <c r="S34" s="34"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>7</v>
       </c>
@@ -2876,7 +2878,7 @@
       </c>
       <c r="S35" s="34"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>8</v>
       </c>
@@ -2932,7 +2934,7 @@
       </c>
       <c r="S36" s="34"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>9</v>
       </c>
@@ -2988,7 +2990,7 @@
       </c>
       <c r="S37" s="34"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>10</v>
       </c>
@@ -3044,7 +3046,7 @@
       </c>
       <c r="S38" s="34"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>11</v>
       </c>
@@ -3100,7 +3102,7 @@
       </c>
       <c r="S39" s="34"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>12</v>
       </c>
@@ -3156,7 +3158,7 @@
       </c>
       <c r="S40" s="34"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>13</v>
       </c>
@@ -3212,7 +3214,7 @@
       </c>
       <c r="S41" s="34"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>14</v>
       </c>
@@ -3268,7 +3270,7 @@
       </c>
       <c r="S42" s="34"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>15</v>
       </c>
@@ -3318,7 +3320,7 @@
       <c r="Q43" s="35"/>
       <c r="S43" s="34"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>16</v>
       </c>
@@ -3374,7 +3376,7 @@
       </c>
       <c r="S44" s="34"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>17</v>
       </c>
@@ -3430,7 +3432,7 @@
       </c>
       <c r="S45" s="34"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>18</v>
       </c>
@@ -3486,7 +3488,7 @@
       </c>
       <c r="S46" s="34"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>19</v>
       </c>
@@ -3537,7 +3539,7 @@
       <c r="R47" s="14"/>
       <c r="S47" s="34"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>20</v>
       </c>
@@ -3593,7 +3595,7 @@
       </c>
       <c r="S48" s="34"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>21</v>
       </c>
@@ -3649,7 +3651,7 @@
       </c>
       <c r="S49" s="34"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
       <c r="D50" s="24"/>
       <c r="E50" s="31"/>
@@ -3667,12 +3669,12 @@
       </c>
       <c r="N50" s="37">
         <f>SUM(N29:N49,N3:N25)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P50" s="38"/>
       <c r="Q50" s="37"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
       <c r="D51" s="24"/>
       <c r="E51" s="31"/>
@@ -3688,10 +3690,10 @@
       </c>
       <c r="Q51">
         <f>COUNTIF(Q3:Q49, "ano")</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
       <c r="D52" s="24"/>
       <c r="E52" s="31"/>
@@ -3703,7 +3705,7 @@
       <c r="L52" s="24"/>
       <c r="M52" s="32"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
       <c r="C53" s="15" t="s">
         <v>19</v>
@@ -3720,7 +3722,7 @@
       <c r="L53" s="24"/>
       <c r="M53" s="32"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
       <c r="C54" s="15" t="s">
         <v>23</v>
@@ -3738,7 +3740,7 @@
       <c r="L54" s="24"/>
       <c r="M54" s="32"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
       <c r="D55" s="24"/>
       <c r="E55" s="31"/>
@@ -3751,7 +3753,7 @@
       <c r="L55" s="24"/>
       <c r="M55" s="32"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
       <c r="D56" s="24"/>
       <c r="E56" s="31"/>
@@ -3764,7 +3766,7 @@
       <c r="L56" s="24"/>
       <c r="M56" s="32"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="23"/>
       <c r="D57" s="24"/>
       <c r="E57" s="31"/>
@@ -3777,7 +3779,7 @@
       <c r="L57" s="24"/>
       <c r="M57" s="32"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
       <c r="D58" s="24"/>
       <c r="E58" s="31"/>
@@ -3790,7 +3792,7 @@
       <c r="L58" s="24"/>
       <c r="M58" s="32"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
       <c r="D59" s="24"/>
       <c r="E59" s="31"/>
@@ -3803,7 +3805,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="32"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="23"/>
       <c r="D60" s="24"/>
       <c r="E60" s="31"/>
@@ -3815,7 +3817,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="32"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
       <c r="D61" s="24"/>
       <c r="E61" s="31"/>
@@ -3828,7 +3830,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="32"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="23"/>
       <c r="D62" s="24"/>
       <c r="E62" s="31"/>
@@ -3841,7 +3843,7 @@
       <c r="L62" s="24"/>
       <c r="M62" s="32"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="23"/>
       <c r="D63" s="24"/>
       <c r="E63" s="31"/>
@@ -3854,7 +3856,7 @@
       <c r="L63" s="24"/>
       <c r="M63" s="32"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="23"/>
       <c r="D64" s="24"/>
       <c r="E64" s="31"/>
@@ -3867,7 +3869,7 @@
       <c r="L64" s="24"/>
       <c r="M64" s="32"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="23"/>
       <c r="D65" s="24"/>
       <c r="E65" s="31"/>
@@ -3879,7 +3881,7 @@
       <c r="L65" s="24"/>
       <c r="M65" s="32"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="23"/>
       <c r="D66" s="24"/>
       <c r="E66" s="31"/>
@@ -3892,7 +3894,7 @@
       <c r="L66" s="24"/>
       <c r="M66" s="32"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="23"/>
       <c r="D67" s="24"/>
       <c r="E67" s="31"/>
@@ -3904,7 +3906,7 @@
       <c r="L67" s="24"/>
       <c r="M67" s="32"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="23"/>
       <c r="D68" s="24"/>
       <c r="E68" s="31"/>

--- a/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
+++ b/_downloads/c6c3ae9668bda441b5d0323c35330068/dochazka.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\NME1cv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Linux_Windows_Share\b_PhD\NME1cv\NME1cvBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BC8712-53DC-4C91-9C1B-FF1D9D1D1E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D295C01-57A5-4FA7-94F5-DDF42D4682B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1035" windowWidth="35685" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,9 +638,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,8 +651,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1029,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1050,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="34"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="6" t="s">
         <v>32</v>
       </c>
@@ -1164,13 +1159,13 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
@@ -1192,22 +1187,22 @@
       <c r="R3" s="18"/>
       <c r="S3" s="30"/>
       <c r="T3" s="14" t="str">
-        <f>IF(AND(Q3&gt;=$D$55, R3=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V3" s="40"/>
+        <f t="shared" ref="T3:T21" si="1">IF(AND(Q3&gt;=$D$55, R3=2), "ANO", "NE")</f>
+        <v>NE</v>
+      </c>
+      <c r="V3" s="37"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="14"/>
@@ -1229,22 +1224,22 @@
       <c r="R4" s="18"/>
       <c r="S4" s="30"/>
       <c r="T4" s="14" t="str">
-        <f>IF(AND(Q4&gt;=$D$55, R4=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V4" s="40"/>
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V4" s="37"/>
     </row>
     <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="14"/>
@@ -1266,22 +1261,22 @@
       <c r="R5" s="18"/>
       <c r="S5" s="30"/>
       <c r="T5" s="14" t="str">
-        <f>IF(AND(Q5&gt;=$D$55, R5=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V5" s="40"/>
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V5" s="37"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="14"/>
@@ -1303,10 +1298,10 @@
       <c r="R6" s="18"/>
       <c r="S6" s="30"/>
       <c r="T6" s="14" t="str">
-        <f>IF(AND(Q6&gt;=$D$55, R6=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V6" s="40" t="s">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V6" s="37" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1314,13 +1309,13 @@
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="14"/>
@@ -1342,22 +1337,22 @@
       <c r="R7" s="18"/>
       <c r="S7" s="30"/>
       <c r="T7" s="14" t="str">
-        <f>IF(AND(Q7&gt;=$D$55, R7=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V7" s="40"/>
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V7" s="37"/>
     </row>
     <row r="8" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="14"/>
@@ -1379,22 +1374,22 @@
       <c r="R8" s="18"/>
       <c r="S8" s="30"/>
       <c r="T8" s="14" t="str">
-        <f>IF(AND(Q8&gt;=$D$55, R8=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V8" s="40"/>
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V8" s="37"/>
     </row>
     <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="14"/>
@@ -1416,22 +1411,22 @@
       <c r="R9" s="18"/>
       <c r="S9" s="30"/>
       <c r="T9" s="14" t="str">
-        <f>IF(AND(Q9&gt;=$D$55, R9=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V9" s="40"/>
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V9" s="37"/>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="14"/>
@@ -1453,22 +1448,22 @@
       <c r="R10" s="18"/>
       <c r="S10" s="30"/>
       <c r="T10" s="14" t="str">
-        <f>IF(AND(Q10&gt;=$D$55, R10=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V10" s="40"/>
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V10" s="37"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="14"/>
@@ -1490,22 +1485,22 @@
       <c r="R11" s="18"/>
       <c r="S11" s="30"/>
       <c r="T11" s="14" t="str">
-        <f>IF(AND(Q11&gt;=$D$55, R11=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V11" s="40"/>
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V11" s="37"/>
     </row>
     <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
@@ -1527,10 +1522,10 @@
       <c r="R12" s="18"/>
       <c r="S12" s="30"/>
       <c r="T12" s="14" t="str">
-        <f>IF(AND(Q12&gt;=$D$55, R12=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V12" s="41" t="s">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V12" s="38" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1538,13 +1533,13 @@
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
@@ -1566,22 +1561,22 @@
       <c r="R13" s="18"/>
       <c r="S13" s="30"/>
       <c r="T13" s="14" t="str">
-        <f>IF(AND(Q13&gt;=$D$55, R13=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V13" s="40"/>
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V13" s="37"/>
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="14"/>
@@ -1603,22 +1598,22 @@
       <c r="R14" s="18"/>
       <c r="S14" s="30"/>
       <c r="T14" s="14" t="str">
-        <f>IF(AND(Q14&gt;=$D$55, R14=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V14" s="40"/>
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V14" s="37"/>
     </row>
     <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="14"/>
@@ -1640,10 +1635,10 @@
       <c r="R15" s="18"/>
       <c r="S15" s="30"/>
       <c r="T15" s="14" t="str">
-        <f>IF(AND(Q15&gt;=$D$55, R15=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V15" s="40" t="s">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V15" s="37" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1651,13 +1646,13 @@
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="14"/>
@@ -1679,10 +1674,10 @@
       <c r="R16" s="18"/>
       <c r="S16" s="30"/>
       <c r="T16" s="14" t="str">
-        <f>IF(AND(Q16&gt;=$D$55, R16=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V16" s="40" t="s">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V16" s="37" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1690,13 +1685,13 @@
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="14"/>
@@ -1718,22 +1713,22 @@
       <c r="R17" s="18"/>
       <c r="S17" s="30"/>
       <c r="T17" s="14" t="str">
-        <f>IF(AND(Q17&gt;=$D$55, R17=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V17" s="40"/>
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V17" s="37"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="14"/>
@@ -1755,22 +1750,22 @@
       <c r="R18" s="18"/>
       <c r="S18" s="30"/>
       <c r="T18" s="14" t="str">
-        <f>IF(AND(Q18&gt;=$D$55, R18=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V18" s="40"/>
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V18" s="37"/>
     </row>
     <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
@@ -1792,10 +1787,10 @@
       <c r="R19" s="18"/>
       <c r="S19" s="30"/>
       <c r="T19" s="14" t="str">
-        <f>IF(AND(Q19&gt;=$D$55, R19=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V19" s="40"/>
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+      <c r="V19" s="37"/>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1804,17 +1799,17 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="13"/>
-      <c r="L20" s="42"/>
+      <c r="L20" s="39"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="43"/>
+      <c r="O20" s="40"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="17">
         <f t="shared" si="0"/>
@@ -1823,7 +1818,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="30"/>
       <c r="T20" s="14" t="str">
-        <f>IF(AND(Q20&gt;=$D$55, R20=2), "ANO", "NE")</f>
+        <f t="shared" si="1"/>
         <v>NE</v>
       </c>
       <c r="V20" s="29"/>
@@ -1835,17 +1830,17 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="42"/>
+      <c r="L21" s="39"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="43"/>
+      <c r="O21" s="40"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="17">
         <f t="shared" si="0"/>
@@ -1854,7 +1849,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="30"/>
       <c r="T21" s="14" t="str">
-        <f>IF(AND(Q21&gt;=$D$55, R21=2), "ANO", "NE")</f>
+        <f t="shared" si="1"/>
         <v>NE</v>
       </c>
       <c r="V21" s="29"/>
@@ -1866,17 +1861,17 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
       <c r="K22" s="13"/>
-      <c r="L22" s="42"/>
+      <c r="L22" s="39"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="43"/>
+      <c r="O22" s="40"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="17">
         <f t="shared" si="0"/>
@@ -1897,17 +1892,17 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="42"/>
+      <c r="L23" s="39"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="43"/>
+      <c r="O23" s="40"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="17">
         <f t="shared" si="0"/>
@@ -1928,17 +1923,17 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="42"/>
+      <c r="L24" s="39"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="43"/>
+      <c r="O24" s="40"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="17">
         <f t="shared" si="0"/>
@@ -1959,17 +1954,17 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="42"/>
+      <c r="L25" s="39"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="43"/>
+      <c r="O25" s="40"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="17">
         <f t="shared" si="0"/>
@@ -2001,9 +1996,9 @@
       <c r="O26" s="24"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
-      <c r="R26" s="32"/>
+      <c r="R26" s="30"/>
       <c r="S26" s="30"/>
-      <c r="T26" s="32"/>
+      <c r="T26" s="30"/>
       <c r="V26" s="29"/>
     </row>
     <row r="27" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
@@ -2012,7 +2007,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="34"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="6" t="s">
         <v>32</v>
       </c>
@@ -2056,7 +2051,7 @@
       <c r="S27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T27" s="32"/>
+      <c r="T27" s="30"/>
       <c r="V27" t="s">
         <v>19</v>
       </c>
@@ -2123,13 +2118,13 @@
       <c r="A29" s="12">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="6"/>
@@ -2145,13 +2140,13 @@
       <c r="O29" s="14"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="17">
-        <f t="shared" ref="Q29:Q51" si="1">SUM(E29:P29)</f>
+        <f t="shared" ref="Q29:Q51" si="2">SUM(E29:P29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="18"/>
       <c r="S29" s="30"/>
       <c r="T29" s="14" t="str">
-        <f>IF(AND(Q29&gt;=$D$55, R29=2), "ANO", "NE")</f>
+        <f t="shared" ref="T29:T51" si="3">IF(AND(Q29&gt;=$D$55, R29=2), "ANO", "NE")</f>
         <v>NE</v>
       </c>
       <c r="V29" s="29"/>
@@ -2160,13 +2155,13 @@
       <c r="A30" s="12">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="6"/>
@@ -2182,13 +2177,13 @@
       <c r="O30" s="14"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R30" s="18"/>
       <c r="S30" s="30"/>
       <c r="T30" s="14" t="str">
-        <f>IF(AND(Q30&gt;=$D$55, R30=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V30" s="29"/>
@@ -2197,13 +2192,13 @@
       <c r="A31" s="12">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="6"/>
@@ -2219,13 +2214,13 @@
       <c r="O31" s="14"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R31" s="18"/>
       <c r="S31" s="30"/>
       <c r="T31" s="14" t="str">
-        <f>IF(AND(Q31&gt;=$D$55, R31=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V31" s="29"/>
@@ -2234,13 +2229,13 @@
       <c r="A32" s="12">
         <v>4</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="6"/>
@@ -2256,13 +2251,13 @@
       <c r="O32" s="14"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R32" s="18"/>
       <c r="S32" s="30"/>
       <c r="T32" s="14" t="str">
-        <f>IF(AND(Q32&gt;=$D$55, R32=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V32" s="29"/>
@@ -2271,13 +2266,13 @@
       <c r="A33" s="12">
         <v>5</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="6"/>
@@ -2293,13 +2288,13 @@
       <c r="O33" s="14"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R33" s="18"/>
       <c r="S33" s="30"/>
       <c r="T33" s="14" t="str">
-        <f>IF(AND(Q33&gt;=$D$55, R33=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V33" s="29"/>
@@ -2308,13 +2303,13 @@
       <c r="A34" s="12">
         <v>6</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="6"/>
@@ -2330,13 +2325,13 @@
       <c r="O34" s="14"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R34" s="18"/>
       <c r="S34" s="30"/>
       <c r="T34" s="14" t="str">
-        <f>IF(AND(Q34&gt;=$D$55, R34=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V34" s="29"/>
@@ -2345,13 +2340,13 @@
       <c r="A35" s="12">
         <v>7</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="6"/>
@@ -2367,13 +2362,13 @@
       <c r="O35" s="14"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R35" s="18"/>
       <c r="S35" s="30"/>
       <c r="T35" s="14" t="str">
-        <f>IF(AND(Q35&gt;=$D$55, R35=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V35" s="29"/>
@@ -2382,13 +2377,13 @@
       <c r="A36" s="12">
         <v>8</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="6"/>
@@ -2404,13 +2399,13 @@
       <c r="O36" s="14"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R36" s="18"/>
       <c r="S36" s="30"/>
       <c r="T36" s="14" t="str">
-        <f>IF(AND(Q36&gt;=$D$55, R36=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V36" s="29"/>
@@ -2419,13 +2414,13 @@
       <c r="A37" s="12">
         <v>9</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="6"/>
@@ -2441,13 +2436,13 @@
       <c r="O37" s="14"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R37" s="18"/>
       <c r="S37" s="30"/>
       <c r="T37" s="14" t="str">
-        <f>IF(AND(Q37&gt;=$D$55, R37=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V37" s="29"/>
@@ -2456,13 +2451,13 @@
       <c r="A38" s="12">
         <v>10</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="6"/>
@@ -2478,13 +2473,13 @@
       <c r="O38" s="14"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R38" s="18"/>
       <c r="S38" s="30"/>
       <c r="T38" s="14" t="str">
-        <f>IF(AND(Q38&gt;=$D$55, R38=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V38" s="29"/>
@@ -2493,13 +2488,13 @@
       <c r="A39" s="12">
         <v>11</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="6"/>
@@ -2515,13 +2510,13 @@
       <c r="O39" s="14"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R39" s="18"/>
       <c r="S39" s="30"/>
       <c r="T39" s="14" t="str">
-        <f>IF(AND(Q39&gt;=$D$55, R39=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V39" s="29"/>
@@ -2530,13 +2525,13 @@
       <c r="A40" s="12">
         <v>12</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="6"/>
@@ -2552,13 +2547,13 @@
       <c r="O40" s="14"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R40" s="18"/>
       <c r="S40" s="30"/>
       <c r="T40" s="14" t="str">
-        <f>IF(AND(Q40&gt;=$D$55, R40=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V40" s="29"/>
@@ -2567,13 +2562,13 @@
       <c r="A41" s="12">
         <v>13</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="6"/>
@@ -2589,13 +2584,13 @@
       <c r="O41" s="14"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R41" s="18"/>
       <c r="S41" s="30"/>
       <c r="T41" s="14" t="str">
-        <f>IF(AND(Q41&gt;=$D$55, R41=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V41" s="29"/>
@@ -2604,13 +2599,13 @@
       <c r="A42" s="12">
         <v>14</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="6"/>
@@ -2626,13 +2621,13 @@
       <c r="O42" s="14"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R42" s="18"/>
       <c r="S42" s="30"/>
       <c r="T42" s="14" t="str">
-        <f>IF(AND(Q42&gt;=$D$55, R42=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V42" s="29"/>
@@ -2641,13 +2636,13 @@
       <c r="A43" s="12">
         <v>15</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="6"/>
@@ -2663,16 +2658,16 @@
       <c r="O43" s="14"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R43" s="18"/>
       <c r="S43" s="30"/>
       <c r="T43" s="14" t="str">
-        <f>IF(AND(Q43&gt;=$D$55, R43=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V43" s="38" t="s">
+        <f t="shared" si="3"/>
+        <v>NE</v>
+      </c>
+      <c r="V43" s="37" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2680,13 +2675,13 @@
       <c r="A44" s="12">
         <v>16</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="6"/>
@@ -2702,16 +2697,16 @@
       <c r="O44" s="14"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R44" s="18"/>
       <c r="S44" s="30"/>
       <c r="T44" s="14" t="str">
-        <f>IF(AND(Q44&gt;=$D$55, R44=2), "ANO", "NE")</f>
-        <v>NE</v>
-      </c>
-      <c r="V44" s="39" t="s">
+        <f t="shared" si="3"/>
+        <v>NE</v>
+      </c>
+      <c r="V44" s="38" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2719,13 +2714,13 @@
       <c r="A45" s="12">
         <v>17</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="6"/>
@@ -2741,13 +2736,13 @@
       <c r="O45" s="14"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R45" s="18"/>
       <c r="S45" s="30"/>
       <c r="T45" s="14" t="str">
-        <f>IF(AND(Q45&gt;=$D$55, R45=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V45" s="29"/>
@@ -2756,13 +2751,13 @@
       <c r="A46" s="12">
         <v>18</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="6"/>
@@ -2778,13 +2773,13 @@
       <c r="O46" s="14"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R46" s="18"/>
       <c r="S46" s="30"/>
       <c r="T46" s="14" t="str">
-        <f>IF(AND(Q46&gt;=$D$55, R46=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="V46" s="29"/>
@@ -2793,13 +2788,13 @@
       <c r="A47" s="12">
         <v>19</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="6"/>
@@ -2815,13 +2810,13 @@
       <c r="O47" s="14"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R47" s="18"/>
       <c r="S47" s="30"/>
       <c r="T47" s="14" t="str">
-        <f>IF(AND(Q47&gt;=$D$55, R47=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="U47" s="10"/>
@@ -2831,9 +2826,9 @@
       <c r="A48" s="12">
         <v>20</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -2847,13 +2842,13 @@
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="17">
-        <f t="shared" ref="Q48:Q49" si="2">SUM(E46:P46)</f>
+        <f t="shared" ref="Q48:Q49" si="4">SUM(E46:P46)</f>
         <v>0</v>
       </c>
       <c r="R48" s="14"/>
       <c r="S48" s="30"/>
       <c r="T48" s="14" t="str">
-        <f>IF(AND(Q50&gt;=$D$55, R48=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="U48" s="10"/>
@@ -2863,9 +2858,9 @@
       <c r="A49" s="12">
         <v>21</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -2879,13 +2874,13 @@
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R49" s="14"/>
       <c r="S49" s="30"/>
       <c r="T49" s="14" t="str">
-        <f t="shared" ref="T48:T51" si="3">IF(AND(Q49&gt;=$D$55, R49=2), "ANO", "NE")</f>
+        <f t="shared" si="3"/>
         <v>NE</v>
       </c>
       <c r="U49" s="10"/>
@@ -2895,9 +2890,9 @@
       <c r="A50" s="12">
         <v>22</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -2916,9 +2911,9 @@
       </c>
       <c r="R50" s="14"/>
       <c r="S50" s="30"/>
-      <c r="T50" s="14" t="e">
-        <f>IF(AND(#REF!&gt;=$D$55, R50=2), "ANO", "NE")</f>
-        <v>#REF!</v>
+      <c r="T50" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>NE</v>
       </c>
       <c r="U50" s="10"/>
       <c r="V50" s="29"/>
@@ -2930,47 +2925,47 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="5"/>
       <c r="N51" s="14"/>
-      <c r="O51" s="43"/>
+      <c r="O51" s="40"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="44"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="41"/>
       <c r="T51" s="14" t="str">
         <f t="shared" si="3"/>
         <v>NE</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="51"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="48"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
